--- a/JupyterNotebooks/AvgHW/Alpha4F-HW35.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha4F-HW35.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,28 +82,28 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
-  </si>
-  <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -680,22 +632,22 @@
         <v>0.9963986931585326</v>
       </c>
       <c r="E3">
+        <v>0.9963986931585326</v>
+      </c>
+      <c r="F3">
         <v>1.000841952007887</v>
       </c>
-      <c r="F3">
+      <c r="G3">
+        <v>1.000889604391946</v>
+      </c>
+      <c r="H3">
+        <v>1.00221407084924</v>
+      </c>
+      <c r="I3">
+        <v>0.9980571086805321</v>
+      </c>
+      <c r="J3">
         <v>1.001005401056132</v>
-      </c>
-      <c r="G3">
-        <v>1.00221407084924</v>
-      </c>
-      <c r="H3">
-        <v>0.9980571086805321</v>
-      </c>
-      <c r="I3">
-        <v>1.000889604391946</v>
-      </c>
-      <c r="J3">
-        <v>0.9963986931585326</v>
       </c>
       <c r="K3">
         <v>1.001005401056132</v>
@@ -728,7 +680,7 @@
         <v>0.999901138357378</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -742,22 +694,22 @@
         <v>0.9930447032198529</v>
       </c>
       <c r="E4">
+        <v>0.9930447032198529</v>
+      </c>
+      <c r="F4">
         <v>1.001623829449759</v>
       </c>
-      <c r="F4">
+      <c r="G4">
+        <v>1.001717701230573</v>
+      </c>
+      <c r="H4">
+        <v>1.004268877214932</v>
+      </c>
+      <c r="I4">
+        <v>0.9962491037741025</v>
+      </c>
+      <c r="J4">
         <v>1.001945815069796</v>
-      </c>
-      <c r="G4">
-        <v>1.004268877214932</v>
-      </c>
-      <c r="H4">
-        <v>0.9962491037741025</v>
-      </c>
-      <c r="I4">
-        <v>1.001717701230573</v>
-      </c>
-      <c r="J4">
-        <v>0.9930447032198529</v>
       </c>
       <c r="K4">
         <v>1.001945815069796</v>
@@ -790,7 +742,7 @@
         <v>0.9998083383265026</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -804,22 +756,22 @@
         <v>0.9866915709412903</v>
       </c>
       <c r="E5">
+        <v>0.9866915709412903</v>
+      </c>
+      <c r="F5">
         <v>1.003122421546222</v>
       </c>
-      <c r="F5">
+      <c r="G5">
+        <v>1.00328951180182</v>
+      </c>
+      <c r="H5">
+        <v>1.008217288396023</v>
+      </c>
+      <c r="I5">
+        <v>0.9928129990494377</v>
+      </c>
+      <c r="J5">
         <v>1.003695542005769</v>
-      </c>
-      <c r="G5">
-        <v>1.008217288396023</v>
-      </c>
-      <c r="H5">
-        <v>0.9928129990494377</v>
-      </c>
-      <c r="I5">
-        <v>1.00328951180182</v>
-      </c>
-      <c r="J5">
-        <v>0.9866915709412903</v>
       </c>
       <c r="K5">
         <v>1.003695542005769</v>
@@ -852,7 +804,7 @@
         <v>0.9996382222900936</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -866,22 +818,22 @@
         <v>0.9804903278335</v>
       </c>
       <c r="E6">
+        <v>0.9804903278335</v>
+      </c>
+      <c r="F6">
         <v>1.004584504596205</v>
       </c>
-      <c r="F6">
+      <c r="G6">
+        <v>1.004823610240445</v>
+      </c>
+      <c r="H6">
+        <v>1.012069142504221</v>
+      </c>
+      <c r="I6">
+        <v>0.9894594801750541</v>
+      </c>
+      <c r="J6">
         <v>1.00540464121328</v>
-      </c>
-      <c r="G6">
-        <v>1.012069142504221</v>
-      </c>
-      <c r="H6">
-        <v>0.9894594801750541</v>
-      </c>
-      <c r="I6">
-        <v>1.004823610240445</v>
-      </c>
-      <c r="J6">
-        <v>0.9804903278335</v>
       </c>
       <c r="K6">
         <v>1.00540464121328</v>
@@ -914,7 +866,7 @@
         <v>0.9994719510937844</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -925,46 +877,46 @@
         <v>1.000054809097421</v>
       </c>
       <c r="D7">
-        <v>0.9997513153390861</v>
+        <v>0.999751315339086</v>
       </c>
       <c r="E7">
-        <v>1.000066260844591</v>
+        <v>0.999751315339086</v>
       </c>
       <c r="F7">
+        <v>1.000066260844592</v>
+      </c>
+      <c r="G7">
+        <v>1.00006292239349</v>
+      </c>
+      <c r="H7">
+        <v>1.000178877597452</v>
+      </c>
+      <c r="I7">
+        <v>0.999860573510276</v>
+      </c>
+      <c r="J7">
         <v>1.000054809097421</v>
-      </c>
-      <c r="G7">
-        <v>1.000178877597452</v>
-      </c>
-      <c r="H7">
-        <v>0.999860573510276</v>
-      </c>
-      <c r="I7">
-        <v>1.00006292239349</v>
-      </c>
-      <c r="J7">
-        <v>0.9997513153390861</v>
       </c>
       <c r="K7">
         <v>1.000054809097421</v>
       </c>
       <c r="L7">
-        <v>1.000066260844591</v>
+        <v>1.000066260844592</v>
       </c>
       <c r="M7">
-        <v>0.9999087880918387</v>
+        <v>0.9999087880918388</v>
       </c>
       <c r="N7">
-        <v>0.9999087880918387</v>
+        <v>0.9999087880918388</v>
       </c>
       <c r="O7">
         <v>0.9998927165646512</v>
       </c>
       <c r="P7">
-        <v>0.9999574617603662</v>
+        <v>0.9999574617603663</v>
       </c>
       <c r="Q7">
-        <v>0.9999574617603662</v>
+        <v>0.9999574617603663</v>
       </c>
       <c r="R7">
         <v>0.99998179859463</v>
@@ -973,10 +925,10 @@
         <v>0.99998179859463</v>
       </c>
       <c r="T7">
-        <v>0.9999957931303859</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>0.9999957931303861</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -987,25 +939,25 @@
         <v>1.000151172944123</v>
       </c>
       <c r="D8">
-        <v>0.9993373898434937</v>
+        <v>0.9993373898434933</v>
       </c>
       <c r="E8">
+        <v>0.9993373898434933</v>
+      </c>
+      <c r="F8">
         <v>1.00017369607509</v>
       </c>
-      <c r="F8">
+      <c r="G8">
+        <v>1.000167129839957</v>
+      </c>
+      <c r="H8">
+        <v>1.000467481356214</v>
+      </c>
+      <c r="I8">
+        <v>0.9996303523675696</v>
+      </c>
+      <c r="J8">
         <v>1.000151172944123</v>
-      </c>
-      <c r="G8">
-        <v>1.000467481356214</v>
-      </c>
-      <c r="H8">
-        <v>0.9996303523675696</v>
-      </c>
-      <c r="I8">
-        <v>1.000167129839957</v>
-      </c>
-      <c r="J8">
-        <v>0.9993373898434937</v>
       </c>
       <c r="K8">
         <v>1.000151172944123</v>
@@ -1014,31 +966,31 @@
         <v>1.00017369607509</v>
       </c>
       <c r="M8">
-        <v>0.9997555429592917</v>
+        <v>0.9997555429592915</v>
       </c>
       <c r="N8">
-        <v>0.9997555429592917</v>
+        <v>0.9997555429592915</v>
       </c>
       <c r="O8">
-        <v>0.999713812762051</v>
+        <v>0.9997138127620508</v>
       </c>
       <c r="P8">
-        <v>0.9998874196209022</v>
+        <v>0.9998874196209021</v>
       </c>
       <c r="Q8">
         <v>0.9998874196209021</v>
       </c>
       <c r="R8">
-        <v>0.9999533579517074</v>
+        <v>0.9999533579517075</v>
       </c>
       <c r="S8">
-        <v>0.9999533579517074</v>
+        <v>0.9999533579517075</v>
       </c>
       <c r="T8">
-        <v>0.9999878704044077</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>0.999987870404408</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1052,22 +1004,22 @@
         <v>0.9990800832963581</v>
       </c>
       <c r="E9">
+        <v>0.9990800832963581</v>
+      </c>
+      <c r="F9">
         <v>1.00023591792791</v>
       </c>
-      <c r="F9">
+      <c r="G9">
+        <v>1.000231070108208</v>
+      </c>
+      <c r="H9">
+        <v>1.000632282669324</v>
+      </c>
+      <c r="I9">
+        <v>0.9994901975224567</v>
+      </c>
+      <c r="J9">
         <v>1.000219288453249</v>
-      </c>
-      <c r="G9">
-        <v>1.000632282669324</v>
-      </c>
-      <c r="H9">
-        <v>0.9994901975224567</v>
-      </c>
-      <c r="I9">
-        <v>1.000231070108208</v>
-      </c>
-      <c r="J9">
-        <v>0.9990800832963581</v>
       </c>
       <c r="K9">
         <v>1.000219288453249</v>
@@ -1100,7 +1052,7 @@
         <v>0.9999814733295843</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1114,22 +1066,22 @@
         <v>0.9980145743559868</v>
       </c>
       <c r="E10">
+        <v>0.9980145743559868</v>
+      </c>
+      <c r="F10">
         <v>1.000515773332683</v>
       </c>
-      <c r="F10">
+      <c r="G10">
+        <v>1.000499922504469</v>
+      </c>
+      <c r="H10">
+        <v>1.001385750990168</v>
+      </c>
+      <c r="I10">
+        <v>0.9988954348606539</v>
+      </c>
+      <c r="J10">
         <v>1.000461405736789</v>
-      </c>
-      <c r="G10">
-        <v>1.001385750990168</v>
-      </c>
-      <c r="H10">
-        <v>0.9988954348606539</v>
-      </c>
-      <c r="I10">
-        <v>1.000499922504469</v>
-      </c>
-      <c r="J10">
-        <v>0.9980145743559868</v>
       </c>
       <c r="K10">
         <v>1.000461405736789</v>
@@ -1162,7 +1114,7 @@
         <v>0.999962143630125</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1176,22 +1128,22 @@
         <v>0.9966972616613798</v>
       </c>
       <c r="E11">
+        <v>0.9966972616613798</v>
+      </c>
+      <c r="F11">
         <v>1.000843285122039</v>
       </c>
-      <c r="F11">
+      <c r="G11">
+        <v>1.000828915914508</v>
+      </c>
+      <c r="H11">
+        <v>1.002258147221963</v>
+      </c>
+      <c r="I11">
+        <v>0.9981720923069638</v>
+      </c>
+      <c r="J11">
         <v>1.000794004004159</v>
-      </c>
-      <c r="G11">
-        <v>1.002258147221963</v>
-      </c>
-      <c r="H11">
-        <v>0.9981720923069638</v>
-      </c>
-      <c r="I11">
-        <v>1.000828915914508</v>
-      </c>
-      <c r="J11">
-        <v>0.9966972616613798</v>
       </c>
       <c r="K11">
         <v>1.000794004004159</v>
@@ -1224,7 +1176,7 @@
         <v>0.9999322843718356</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1238,28 +1190,28 @@
         <v>1.035590697634032</v>
       </c>
       <c r="E12">
-        <v>0.9904654422090636</v>
+        <v>1.035590697634032</v>
       </c>
       <c r="F12">
+        <v>0.9904654422090639</v>
+      </c>
+      <c r="G12">
+        <v>0.9909853482461128</v>
+      </c>
+      <c r="H12">
+        <v>0.9742348483760883</v>
+      </c>
+      <c r="I12">
+        <v>1.019987587429532</v>
+      </c>
+      <c r="J12">
         <v>0.9922487180159747</v>
-      </c>
-      <c r="G12">
-        <v>0.9742348483760883</v>
-      </c>
-      <c r="H12">
-        <v>1.019987587429532</v>
-      </c>
-      <c r="I12">
-        <v>0.9909853482461128</v>
-      </c>
-      <c r="J12">
-        <v>1.035590697634032</v>
       </c>
       <c r="K12">
         <v>0.9922487180159747</v>
       </c>
       <c r="L12">
-        <v>0.9904654422090636</v>
+        <v>0.9904654422090639</v>
       </c>
       <c r="M12">
         <v>1.013028069921548</v>
@@ -1286,7 +1238,7 @@
         <v>1.000585440318467</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,31 +1246,31 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.997057222499049</v>
+        <v>0.9970572224990493</v>
       </c>
       <c r="D13">
         <v>1.009784018769365</v>
       </c>
       <c r="E13">
+        <v>1.009784018769365</v>
+      </c>
+      <c r="F13">
         <v>0.9978299784127406</v>
       </c>
-      <c r="F13">
-        <v>0.997057222499049</v>
-      </c>
       <c r="G13">
+        <v>0.997604682345176</v>
+      </c>
+      <c r="H13">
         <v>0.9943604702010407</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>1.00520236982331</v>
       </c>
-      <c r="I13">
-        <v>0.997604682345176</v>
-      </c>
       <c r="J13">
-        <v>1.009784018769365</v>
+        <v>0.9970572224990493</v>
       </c>
       <c r="K13">
-        <v>0.997057222499049</v>
+        <v>0.9970572224990493</v>
       </c>
       <c r="L13">
         <v>0.9978299784127406</v>
@@ -1333,7 +1285,7 @@
         <v>1.004272122335139</v>
       </c>
       <c r="P13">
-        <v>1.001557073227051</v>
+        <v>1.001557073227052</v>
       </c>
       <c r="Q13">
         <v>1.001557073227051</v>
@@ -1348,7 +1300,7 @@
         <v>1.000306457008447</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1362,28 +1314,28 @@
         <v>1.088593805931357</v>
       </c>
       <c r="E14">
-        <v>0.977932915327713</v>
+        <v>1.088593805931357</v>
       </c>
       <c r="F14">
+        <v>0.9779329153277131</v>
+      </c>
+      <c r="G14">
+        <v>0.9778664977828289</v>
+      </c>
+      <c r="H14">
+        <v>0.9411978475825253</v>
+      </c>
+      <c r="I14">
+        <v>1.048673862633481</v>
+      </c>
+      <c r="J14">
         <v>0.977705090425344</v>
-      </c>
-      <c r="G14">
-        <v>0.9411978475825253</v>
-      </c>
-      <c r="H14">
-        <v>1.048673862633481</v>
-      </c>
-      <c r="I14">
-        <v>0.9778664977828289</v>
-      </c>
-      <c r="J14">
-        <v>1.088593805931357</v>
       </c>
       <c r="K14">
         <v>0.977705090425344</v>
       </c>
       <c r="L14">
-        <v>0.977932915327713</v>
+        <v>0.9779329153277131</v>
       </c>
       <c r="M14">
         <v>1.033263360629535</v>
@@ -1392,7 +1344,7 @@
         <v>1.033263360629535</v>
       </c>
       <c r="O14">
-        <v>1.03840019463085</v>
+        <v>1.038400194630851</v>
       </c>
       <c r="P14">
         <v>1.014743937228138</v>
@@ -1401,16 +1353,16 @@
         <v>1.014743937228138</v>
       </c>
       <c r="R14">
-        <v>1.005484225527439</v>
+        <v>1.00548422552744</v>
       </c>
       <c r="S14">
-        <v>1.005484225527439</v>
+        <v>1.00548422552744</v>
       </c>
       <c r="T14">
-        <v>1.001995003280541</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+        <v>1.001995003280542</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1424,22 +1376,22 @@
         <v>1.023438890463707</v>
       </c>
       <c r="E15">
+        <v>1.023438890463707</v>
+      </c>
+      <c r="F15">
         <v>0.9941278789637381</v>
       </c>
-      <c r="F15">
+      <c r="G15">
+        <v>0.9941379966925324</v>
+      </c>
+      <c r="H15">
+        <v>0.9843344142237102</v>
+      </c>
+      <c r="I15">
+        <v>1.012899424255258</v>
+      </c>
+      <c r="J15">
         <v>0.9941625928970294</v>
-      </c>
-      <c r="G15">
-        <v>0.9843344142237102</v>
-      </c>
-      <c r="H15">
-        <v>1.012899424255258</v>
-      </c>
-      <c r="I15">
-        <v>0.9941379966925323</v>
-      </c>
-      <c r="J15">
-        <v>1.023438890463707</v>
       </c>
       <c r="K15">
         <v>0.9941625928970294</v>
@@ -1472,7 +1424,7 @@
         <v>1.000516866249329</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9999600749751917</v>
+        <v>1.019287442289977</v>
       </c>
       <c r="D16">
-        <v>1.000012254198301</v>
+        <v>0.9299530991668197</v>
       </c>
       <c r="E16">
-        <v>1.000017414677792</v>
+        <v>0.9299530991668197</v>
       </c>
       <c r="F16">
-        <v>0.9999600749751917</v>
+        <v>1.016525216590303</v>
       </c>
       <c r="G16">
-        <v>1.000057361817249</v>
+        <v>1.017330524015869</v>
       </c>
       <c r="H16">
-        <v>0.9999934701166742</v>
+        <v>1.043541080397048</v>
       </c>
       <c r="I16">
-        <v>1.000000697578546</v>
+        <v>0.9621134669101286</v>
       </c>
       <c r="J16">
-        <v>1.000012254198301</v>
+        <v>1.019287442289977</v>
       </c>
       <c r="K16">
-        <v>0.9999600749751917</v>
+        <v>1.019287442289977</v>
       </c>
       <c r="L16">
-        <v>1.000017414677792</v>
+        <v>1.016525216590303</v>
       </c>
       <c r="M16">
-        <v>1.000014834438047</v>
+        <v>0.9732391578785612</v>
       </c>
       <c r="N16">
-        <v>1.000014834438047</v>
+        <v>0.9732391578785612</v>
       </c>
       <c r="O16">
-        <v>1.000007712997589</v>
+        <v>0.9695305942224169</v>
       </c>
       <c r="P16">
-        <v>0.9999965812837618</v>
+        <v>0.9885885860156997</v>
       </c>
       <c r="Q16">
-        <v>0.9999965812837616</v>
+        <v>0.9885885860156997</v>
       </c>
       <c r="R16">
-        <v>0.9999874547066191</v>
+        <v>0.996263300084269</v>
       </c>
       <c r="S16">
-        <v>0.9999874547066191</v>
+        <v>0.996263300084269</v>
       </c>
       <c r="T16">
-        <v>1.000006878893959</v>
+        <v>0.9981251382283572</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000123816162829</v>
+        <v>1.015142338039943</v>
       </c>
       <c r="D17">
-        <v>0.9996629730186686</v>
+        <v>0.9430689756064737</v>
       </c>
       <c r="E17">
-        <v>1.000062279263076</v>
+        <v>0.9430689756064737</v>
       </c>
       <c r="F17">
-        <v>1.000123816162829</v>
+        <v>1.01372743305878</v>
       </c>
       <c r="G17">
-        <v>1.000154356865046</v>
+        <v>1.014139937831475</v>
       </c>
       <c r="H17">
-        <v>0.9998288763691064</v>
+        <v>1.03633696606953</v>
       </c>
       <c r="I17">
-        <v>1.000080219422852</v>
+        <v>0.9690153889911328</v>
       </c>
       <c r="J17">
-        <v>0.9996629730186686</v>
+        <v>1.015142338039943</v>
       </c>
       <c r="K17">
-        <v>1.000123816162829</v>
+        <v>1.015142338039943</v>
       </c>
       <c r="L17">
-        <v>1.000062279263076</v>
+        <v>1.01372743305878</v>
       </c>
       <c r="M17">
-        <v>0.9998626261408721</v>
+        <v>0.9783982043326267</v>
       </c>
       <c r="N17">
-        <v>0.9998626261408721</v>
+        <v>0.9783982043326267</v>
       </c>
       <c r="O17">
-        <v>0.9998513762169502</v>
+        <v>0.9752705992187954</v>
       </c>
       <c r="P17">
-        <v>0.9999496894815244</v>
+        <v>0.990646248901732</v>
       </c>
       <c r="Q17">
-        <v>0.9999496894815244</v>
+        <v>0.990646248901732</v>
       </c>
       <c r="R17">
-        <v>0.9999932211518506</v>
+        <v>0.9967702711862847</v>
       </c>
       <c r="S17">
-        <v>0.9999932211518506</v>
+        <v>0.9967702711862847</v>
       </c>
       <c r="T17">
-        <v>0.9999854201835964</v>
+        <v>0.998571839932889</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000199672431653</v>
+        <v>1.006849206474336</v>
       </c>
       <c r="D18">
-        <v>0.9989588120580243</v>
+        <v>0.9694055649537139</v>
       </c>
       <c r="E18">
-        <v>1.000293978664526</v>
+        <v>0.9694055649537139</v>
       </c>
       <c r="F18">
-        <v>1.000199672431653</v>
+        <v>1.008092721176132</v>
       </c>
       <c r="G18">
-        <v>1.000801906042377</v>
+        <v>1.00773017879794</v>
       </c>
       <c r="H18">
-        <v>0.9994055202432048</v>
+        <v>1.021817450654877</v>
       </c>
       <c r="I18">
-        <v>1.000266484369937</v>
+        <v>0.9828852738291289</v>
       </c>
       <c r="J18">
-        <v>0.9989588120580243</v>
+        <v>1.006849206474336</v>
       </c>
       <c r="K18">
-        <v>1.000199672431653</v>
+        <v>1.006849206474336</v>
       </c>
       <c r="L18">
-        <v>1.000293978664526</v>
+        <v>1.008092721176132</v>
       </c>
       <c r="M18">
-        <v>0.999626395361275</v>
+        <v>0.9887491430649228</v>
       </c>
       <c r="N18">
-        <v>0.999626395361275</v>
+        <v>0.9887491430649228</v>
       </c>
       <c r="O18">
-        <v>0.9995527703219182</v>
+        <v>0.9867945199863248</v>
       </c>
       <c r="P18">
-        <v>0.9998174877180676</v>
+        <v>0.9947824975347271</v>
       </c>
       <c r="Q18">
-        <v>0.9998174877180676</v>
+        <v>0.9947824975347271</v>
       </c>
       <c r="R18">
-        <v>0.9999130338964639</v>
+        <v>0.9977991747696293</v>
       </c>
       <c r="S18">
-        <v>0.9999130338964639</v>
+        <v>0.9977991747696293</v>
       </c>
       <c r="T18">
-        <v>0.999987728968287</v>
+        <v>0.9994633993143546</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>1.007217407178615</v>
+      </c>
+      <c r="D19">
+        <v>0.9665297188666453</v>
+      </c>
+      <c r="E19">
+        <v>0.9665297188666453</v>
+      </c>
+      <c r="F19">
+        <v>1.009006548649205</v>
+      </c>
+      <c r="G19">
+        <v>1.008484935193948</v>
+      </c>
+      <c r="H19">
+        <v>1.024358260732015</v>
+      </c>
+      <c r="I19">
+        <v>0.9811772844020181</v>
+      </c>
+      <c r="J19">
+        <v>1.007217407178615</v>
+      </c>
+      <c r="K19">
+        <v>1.007217407178615</v>
+      </c>
+      <c r="L19">
+        <v>1.009006548649205</v>
+      </c>
+      <c r="M19">
+        <v>0.9877681337579253</v>
+      </c>
+      <c r="N19">
+        <v>0.9877681337579253</v>
+      </c>
+      <c r="O19">
+        <v>0.9855711839726228</v>
+      </c>
+      <c r="P19">
+        <v>0.9942512248981551</v>
+      </c>
+      <c r="Q19">
+        <v>0.9942512248981551</v>
+      </c>
+      <c r="R19">
+        <v>0.99749277046827</v>
+      </c>
+      <c r="S19">
+        <v>0.99749277046827</v>
+      </c>
+      <c r="T19">
+        <v>0.9994623591704078</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9999600749751919</v>
+      </c>
+      <c r="D20">
+        <v>1.000012254198302</v>
+      </c>
+      <c r="E20">
+        <v>1.000012254198302</v>
+      </c>
+      <c r="F20">
+        <v>1.000017414677792</v>
+      </c>
+      <c r="G20">
+        <v>1.000000697578546</v>
+      </c>
+      <c r="H20">
+        <v>1.000057361817249</v>
+      </c>
+      <c r="I20">
+        <v>0.9999934701166738</v>
+      </c>
+      <c r="J20">
+        <v>0.9999600749751919</v>
+      </c>
+      <c r="K20">
+        <v>0.9999600749751919</v>
+      </c>
+      <c r="L20">
+        <v>1.000017414677792</v>
+      </c>
+      <c r="M20">
+        <v>1.000014834438047</v>
+      </c>
+      <c r="N20">
+        <v>1.000014834438047</v>
+      </c>
+      <c r="O20">
+        <v>1.000007712997589</v>
+      </c>
+      <c r="P20">
+        <v>0.9999965812837619</v>
+      </c>
+      <c r="Q20">
+        <v>0.9999965812837619</v>
+      </c>
+      <c r="R20">
+        <v>0.9999874547066194</v>
+      </c>
+      <c r="S20">
+        <v>0.9999874547066194</v>
+      </c>
+      <c r="T20">
+        <v>1.000006878893959</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.000123816162829</v>
+      </c>
+      <c r="D21">
+        <v>0.9996629730186686</v>
+      </c>
+      <c r="E21">
+        <v>0.9996629730186686</v>
+      </c>
+      <c r="F21">
+        <v>1.000062279263076</v>
+      </c>
+      <c r="G21">
+        <v>1.000080219422852</v>
+      </c>
+      <c r="H21">
+        <v>1.000154356865046</v>
+      </c>
+      <c r="I21">
+        <v>0.9998288763691064</v>
+      </c>
+      <c r="J21">
+        <v>1.000123816162829</v>
+      </c>
+      <c r="K21">
+        <v>1.000123816162829</v>
+      </c>
+      <c r="L21">
+        <v>1.000062279263076</v>
+      </c>
+      <c r="M21">
+        <v>0.9998626261408721</v>
+      </c>
+      <c r="N21">
+        <v>0.9998626261408721</v>
+      </c>
+      <c r="O21">
+        <v>0.9998513762169502</v>
+      </c>
+      <c r="P21">
+        <v>0.9999496894815244</v>
+      </c>
+      <c r="Q21">
+        <v>0.9999496894815244</v>
+      </c>
+      <c r="R21">
+        <v>0.9999932211518506</v>
+      </c>
+      <c r="S21">
+        <v>0.9999932211518506</v>
+      </c>
+      <c r="T21">
+        <v>0.9999854201835964</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.000199672431653</v>
+      </c>
+      <c r="D22">
+        <v>0.9989588120580243</v>
+      </c>
+      <c r="E22">
+        <v>0.9989588120580243</v>
+      </c>
+      <c r="F22">
+        <v>1.000293978664526</v>
+      </c>
+      <c r="G22">
+        <v>1.000266484369937</v>
+      </c>
+      <c r="H22">
+        <v>1.000801906042377</v>
+      </c>
+      <c r="I22">
+        <v>0.9994055202432048</v>
+      </c>
+      <c r="J22">
+        <v>1.000199672431653</v>
+      </c>
+      <c r="K22">
+        <v>1.000199672431653</v>
+      </c>
+      <c r="L22">
+        <v>1.000293978664526</v>
+      </c>
+      <c r="M22">
+        <v>0.999626395361275</v>
+      </c>
+      <c r="N22">
+        <v>0.999626395361275</v>
+      </c>
+      <c r="O22">
+        <v>0.9995527703219182</v>
+      </c>
+      <c r="P22">
+        <v>0.9998174877180676</v>
+      </c>
+      <c r="Q22">
+        <v>0.9998174877180676</v>
+      </c>
+      <c r="R22">
+        <v>0.9999130338964639</v>
+      </c>
+      <c r="S22">
+        <v>0.9999130338964639</v>
+      </c>
+      <c r="T22">
+        <v>0.999987728968287</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
         <v>1.00034198779231</v>
       </c>
-      <c r="D19">
+      <c r="D23">
         <v>0.9976382078369553</v>
       </c>
-      <c r="E19">
+      <c r="E23">
+        <v>0.9976382078369553</v>
+      </c>
+      <c r="F23">
         <v>1.000728485021599</v>
       </c>
-      <c r="F19">
+      <c r="G23">
+        <v>1.000615799213963</v>
+      </c>
+      <c r="H23">
+        <v>1.002016238989799</v>
+      </c>
+      <c r="I23">
+        <v>0.9986115657253768</v>
+      </c>
+      <c r="J23">
         <v>1.00034198779231</v>
       </c>
-      <c r="G19">
-        <v>1.002016238989799</v>
-      </c>
-      <c r="H19">
-        <v>0.9986115657253768</v>
-      </c>
-      <c r="I19">
-        <v>1.000615799213963</v>
-      </c>
-      <c r="J19">
-        <v>0.9976382078369553</v>
-      </c>
-      <c r="K19">
+      <c r="K23">
         <v>1.00034198779231</v>
       </c>
-      <c r="L19">
+      <c r="L23">
         <v>1.000728485021599</v>
       </c>
-      <c r="M19">
+      <c r="M23">
         <v>0.9991833464292772</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>0.9991833464292772</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>0.9989927528613104</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>0.9995695602169548</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>0.9995695602169546</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>0.9997626671107933</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>0.9997626671107933</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>0.9999920474300005</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/Alpha4F-HW35.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha4F-HW35.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[2, 2, 0]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.001005401056132</v>
+        <v>1.008380025893372</v>
       </c>
       <c r="D3">
-        <v>0.9963986931585326</v>
+        <v>0.9629452366282427</v>
       </c>
       <c r="E3">
-        <v>0.9963986931585326</v>
+        <v>0.9629452366282427</v>
       </c>
       <c r="F3">
-        <v>1.000841952007887</v>
+        <v>1.009754614337175</v>
       </c>
       <c r="G3">
-        <v>1.000889604391946</v>
+        <v>1.009353859582134</v>
       </c>
       <c r="H3">
-        <v>1.00221407084924</v>
+        <v>1.026274132002884</v>
       </c>
       <c r="I3">
-        <v>0.9980571086805321</v>
+        <v>0.9793017613112386</v>
       </c>
       <c r="J3">
-        <v>1.001005401056132</v>
+        <v>1.008380025893372</v>
       </c>
       <c r="K3">
-        <v>1.001005401056132</v>
+        <v>1.008380025893372</v>
       </c>
       <c r="L3">
-        <v>1.000841952007887</v>
+        <v>1.009754614337175</v>
       </c>
       <c r="M3">
-        <v>0.9986203225832095</v>
+        <v>0.9863499254827091</v>
       </c>
       <c r="N3">
-        <v>0.9986203225832095</v>
+        <v>0.9863499254827091</v>
       </c>
       <c r="O3">
-        <v>0.9984325846156503</v>
+        <v>0.9840005374255522</v>
       </c>
       <c r="P3">
-        <v>0.9994153487408503</v>
+        <v>0.9936932922862632</v>
       </c>
       <c r="Q3">
-        <v>0.9994153487408503</v>
+        <v>0.9936932922862632</v>
       </c>
       <c r="R3">
-        <v>0.9998128618196706</v>
+        <v>0.9973649756880404</v>
       </c>
       <c r="S3">
-        <v>0.9998128618196706</v>
+        <v>0.9973649756880404</v>
       </c>
       <c r="T3">
-        <v>0.999901138357378</v>
+        <v>0.9993349382925075</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.001945815069796</v>
+        <v>1.007532463019</v>
       </c>
       <c r="D4">
-        <v>0.9930447032198529</v>
+        <v>0.9664531625177062</v>
       </c>
       <c r="E4">
-        <v>0.9930447032198529</v>
+        <v>0.9664531625177062</v>
       </c>
       <c r="F4">
-        <v>1.001623829449759</v>
+        <v>1.00886128949124</v>
       </c>
       <c r="G4">
-        <v>1.001717701230573</v>
+        <v>1.008473876753636</v>
       </c>
       <c r="H4">
-        <v>1.004268877214932</v>
+        <v>1.023883216632498</v>
       </c>
       <c r="I4">
-        <v>0.9962491037741025</v>
+        <v>0.9812417110967224</v>
       </c>
       <c r="J4">
-        <v>1.001945815069796</v>
+        <v>1.007532463019</v>
       </c>
       <c r="K4">
-        <v>1.001945815069796</v>
+        <v>1.007532463019</v>
       </c>
       <c r="L4">
-        <v>1.001623829449759</v>
+        <v>1.00886128949124</v>
       </c>
       <c r="M4">
-        <v>0.9973342663348057</v>
+        <v>0.9876572260044729</v>
       </c>
       <c r="N4">
-        <v>0.9973342663348057</v>
+        <v>0.9876572260044729</v>
       </c>
       <c r="O4">
-        <v>0.9969725454812379</v>
+        <v>0.9855187210352229</v>
       </c>
       <c r="P4">
-        <v>0.9988714492464693</v>
+        <v>0.9942823050093154</v>
       </c>
       <c r="Q4">
-        <v>0.9988714492464693</v>
+        <v>0.9942823050093154</v>
       </c>
       <c r="R4">
-        <v>0.9996400407023012</v>
+        <v>0.9975948445117366</v>
       </c>
       <c r="S4">
-        <v>0.9996400407023012</v>
+        <v>0.9975948445117366</v>
       </c>
       <c r="T4">
-        <v>0.9998083383265026</v>
+        <v>0.999407619918467</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.003695542005769</v>
+        <v>1.009982550673854</v>
       </c>
       <c r="D5">
-        <v>0.9866915709412903</v>
+        <v>0.9563016696226422</v>
       </c>
       <c r="E5">
-        <v>0.9866915709412903</v>
+        <v>0.9563016696226422</v>
       </c>
       <c r="F5">
-        <v>1.003122421546222</v>
+        <v>1.011447933908356</v>
       </c>
       <c r="G5">
-        <v>1.00328951180182</v>
+        <v>1.011020704312669</v>
       </c>
       <c r="H5">
-        <v>1.008217288396023</v>
+        <v>1.030806937735849</v>
       </c>
       <c r="I5">
-        <v>0.9928129990494377</v>
+        <v>0.9756267850943393</v>
       </c>
       <c r="J5">
-        <v>1.003695542005769</v>
+        <v>1.009982550673854</v>
       </c>
       <c r="K5">
-        <v>1.003695542005769</v>
+        <v>1.009982550673854</v>
       </c>
       <c r="L5">
-        <v>1.003122421546222</v>
+        <v>1.011447933908356</v>
       </c>
       <c r="M5">
-        <v>0.994906996243756</v>
+        <v>0.9838748017654988</v>
       </c>
       <c r="N5">
-        <v>0.994906996243756</v>
+        <v>0.9838748017654988</v>
       </c>
       <c r="O5">
-        <v>0.9942089971789833</v>
+        <v>0.9811254628751124</v>
       </c>
       <c r="P5">
-        <v>0.9978365114977602</v>
+        <v>0.9925773847349507</v>
       </c>
       <c r="Q5">
-        <v>0.9978365114977602</v>
+        <v>0.9925773847349507</v>
       </c>
       <c r="R5">
-        <v>0.9993012691247624</v>
+        <v>0.9969286762196765</v>
       </c>
       <c r="S5">
-        <v>0.9993012691247624</v>
+        <v>0.9969286762196765</v>
       </c>
       <c r="T5">
-        <v>0.9996382222900936</v>
+        <v>0.9991977635579515</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.00540464121328</v>
+        <v>1.011470385795454</v>
       </c>
       <c r="D6">
-        <v>0.9804903278335</v>
+        <v>0.9501204370454551</v>
       </c>
       <c r="E6">
-        <v>0.9804903278335</v>
+        <v>0.9501204370454551</v>
       </c>
       <c r="F6">
-        <v>1.004584504596205</v>
+        <v>1.01302516556818</v>
       </c>
       <c r="G6">
-        <v>1.004823610240445</v>
+        <v>1.012571878181818</v>
       </c>
       <c r="H6">
-        <v>1.012069142504221</v>
+        <v>1.03502992375</v>
       </c>
       <c r="I6">
-        <v>0.9894594801750541</v>
+        <v>0.9722064159090917</v>
       </c>
       <c r="J6">
-        <v>1.00540464121328</v>
+        <v>1.011470385795454</v>
       </c>
       <c r="K6">
-        <v>1.00540464121328</v>
+        <v>1.011470385795454</v>
       </c>
       <c r="L6">
-        <v>1.004584504596205</v>
+        <v>1.01302516556818</v>
       </c>
       <c r="M6">
-        <v>0.9925374162148526</v>
+        <v>0.9815728013068177</v>
       </c>
       <c r="N6">
-        <v>0.9925374162148526</v>
+        <v>0.9815728013068177</v>
       </c>
       <c r="O6">
-        <v>0.9915114375349198</v>
+        <v>0.9784506728409091</v>
       </c>
       <c r="P6">
-        <v>0.9968264912143286</v>
+        <v>0.9915386628030299</v>
       </c>
       <c r="Q6">
-        <v>0.9968264912143286</v>
+        <v>0.9915386628030299</v>
       </c>
       <c r="R6">
-        <v>0.9989710287140665</v>
+        <v>0.996521593551136</v>
       </c>
       <c r="S6">
-        <v>0.9989710287140665</v>
+        <v>0.996521593551136</v>
       </c>
       <c r="T6">
-        <v>0.9994719510937844</v>
+        <v>0.9990707010416665</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000054809097421</v>
+        <v>1.026091259613119</v>
       </c>
       <c r="D7">
-        <v>0.999751315339086</v>
+        <v>0.9111174655999257</v>
       </c>
       <c r="E7">
-        <v>0.999751315339086</v>
+        <v>0.9111174655999257</v>
       </c>
       <c r="F7">
-        <v>1.000066260844592</v>
+        <v>1.020070281239558</v>
       </c>
       <c r="G7">
-        <v>1.00006292239349</v>
+        <v>1.021825663784743</v>
       </c>
       <c r="H7">
-        <v>1.000178877597452</v>
+        <v>1.052373906700017</v>
       </c>
       <c r="I7">
-        <v>0.999860573510276</v>
+        <v>0.9525080335854789</v>
       </c>
       <c r="J7">
-        <v>1.000054809097421</v>
+        <v>1.026091259613119</v>
       </c>
       <c r="K7">
-        <v>1.000054809097421</v>
+        <v>1.026091259613119</v>
       </c>
       <c r="L7">
-        <v>1.000066260844592</v>
+        <v>1.020070281239558</v>
       </c>
       <c r="M7">
-        <v>0.9999087880918388</v>
+        <v>0.9655938734197417</v>
       </c>
       <c r="N7">
-        <v>0.9999087880918388</v>
+        <v>0.9655938734197417</v>
       </c>
       <c r="O7">
-        <v>0.9998927165646512</v>
+        <v>0.9612319268083208</v>
       </c>
       <c r="P7">
-        <v>0.9999574617603663</v>
+        <v>0.9857596688175342</v>
       </c>
       <c r="Q7">
-        <v>0.9999574617603663</v>
+        <v>0.9857596688175342</v>
       </c>
       <c r="R7">
-        <v>0.99998179859463</v>
+        <v>0.9958425665164305</v>
       </c>
       <c r="S7">
-        <v>0.99998179859463</v>
+        <v>0.9958425665164305</v>
       </c>
       <c r="T7">
-        <v>0.9999957931303861</v>
+        <v>0.997331101753807</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000151172944123</v>
+        <v>1.026177103460173</v>
       </c>
       <c r="D8">
-        <v>0.9993373898434933</v>
+        <v>0.910646994955056</v>
       </c>
       <c r="E8">
-        <v>0.9993373898434933</v>
+        <v>0.910646994955056</v>
       </c>
       <c r="F8">
-        <v>1.00017369607509</v>
+        <v>1.020205550963637</v>
       </c>
       <c r="G8">
-        <v>1.000167129839957</v>
+        <v>1.021946523486317</v>
       </c>
       <c r="H8">
-        <v>1.000467481356214</v>
+        <v>1.052744040234713</v>
       </c>
       <c r="I8">
-        <v>0.9996303523675696</v>
+        <v>0.9522378362052168</v>
       </c>
       <c r="J8">
-        <v>1.000151172944123</v>
+        <v>1.026177103460173</v>
       </c>
       <c r="K8">
-        <v>1.000151172944123</v>
+        <v>1.026177103460173</v>
       </c>
       <c r="L8">
-        <v>1.00017369607509</v>
+        <v>1.020205550963637</v>
       </c>
       <c r="M8">
-        <v>0.9997555429592915</v>
+        <v>0.9654262729593462</v>
       </c>
       <c r="N8">
-        <v>0.9997555429592915</v>
+        <v>0.9654262729593462</v>
       </c>
       <c r="O8">
-        <v>0.9997138127620508</v>
+        <v>0.9610301273746366</v>
       </c>
       <c r="P8">
-        <v>0.9998874196209021</v>
+        <v>0.9856765497929553</v>
       </c>
       <c r="Q8">
-        <v>0.9998874196209021</v>
+        <v>0.9856765497929553</v>
       </c>
       <c r="R8">
-        <v>0.9999533579517075</v>
+        <v>0.9958016882097598</v>
       </c>
       <c r="S8">
-        <v>0.9999533579517075</v>
+        <v>0.9958016882097598</v>
       </c>
       <c r="T8">
-        <v>0.999987870404408</v>
+        <v>0.9973263415508522</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000219288453249</v>
+        <v>1.026231409374432</v>
       </c>
       <c r="D9">
-        <v>0.9990800832963581</v>
+        <v>0.9102400226900035</v>
       </c>
       <c r="E9">
-        <v>0.9990800832963581</v>
+        <v>0.9102400226900035</v>
       </c>
       <c r="F9">
-        <v>1.00023591792791</v>
+        <v>1.020333647936879</v>
       </c>
       <c r="G9">
-        <v>1.000231070108208</v>
+        <v>1.02205310695979</v>
       </c>
       <c r="H9">
-        <v>1.000632282669324</v>
+        <v>1.053099687455822</v>
       </c>
       <c r="I9">
-        <v>0.9994901975224567</v>
+        <v>0.9519969241065426</v>
       </c>
       <c r="J9">
-        <v>1.000219288453249</v>
+        <v>1.026231409374432</v>
       </c>
       <c r="K9">
-        <v>1.000219288453249</v>
+        <v>1.026231409374432</v>
       </c>
       <c r="L9">
-        <v>1.00023591792791</v>
+        <v>1.020333647936879</v>
       </c>
       <c r="M9">
-        <v>0.9996580006121341</v>
+        <v>0.9652868353134412</v>
       </c>
       <c r="N9">
-        <v>0.9996580006121341</v>
+        <v>0.9652868353134412</v>
       </c>
       <c r="O9">
-        <v>0.9996020662489083</v>
+        <v>0.9608568649111416</v>
       </c>
       <c r="P9">
-        <v>0.9998450965591724</v>
+        <v>0.9856016933337717</v>
       </c>
       <c r="Q9">
-        <v>0.9998450965591724</v>
+        <v>0.9856016933337717</v>
       </c>
       <c r="R9">
-        <v>0.9999386445326917</v>
+        <v>0.9957591223439368</v>
       </c>
       <c r="S9">
-        <v>0.9999386445326917</v>
+        <v>0.9957591223439368</v>
       </c>
       <c r="T9">
-        <v>0.9999814733295843</v>
+        <v>0.9973257997539114</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000461405736789</v>
+        <v>1.026429968945457</v>
       </c>
       <c r="D10">
-        <v>0.9980145743559868</v>
+        <v>0.9093913995221282</v>
       </c>
       <c r="E10">
-        <v>0.9980145743559868</v>
+        <v>0.9093913995221282</v>
       </c>
       <c r="F10">
-        <v>1.000515773332683</v>
+        <v>1.020553356912373</v>
       </c>
       <c r="G10">
-        <v>1.000499922504469</v>
+        <v>1.022266649568516</v>
       </c>
       <c r="H10">
-        <v>1.001385750990168</v>
+        <v>1.053689605941315</v>
       </c>
       <c r="I10">
-        <v>0.9988954348606539</v>
+        <v>0.9515252868507806</v>
       </c>
       <c r="J10">
-        <v>1.000461405736789</v>
+        <v>1.026429968945457</v>
       </c>
       <c r="K10">
-        <v>1.000461405736789</v>
+        <v>1.026429968945457</v>
       </c>
       <c r="L10">
-        <v>1.000515773332683</v>
+        <v>1.020553356912373</v>
       </c>
       <c r="M10">
-        <v>0.999265173844335</v>
+        <v>0.9649723782172508</v>
       </c>
       <c r="N10">
-        <v>0.999265173844335</v>
+        <v>0.9649723782172508</v>
       </c>
       <c r="O10">
-        <v>0.9991419275164413</v>
+        <v>0.9604900144284274</v>
       </c>
       <c r="P10">
-        <v>0.9996639178084864</v>
+        <v>0.9854582417933194</v>
       </c>
       <c r="Q10">
-        <v>0.9996639178084864</v>
+        <v>0.9854582417933194</v>
       </c>
       <c r="R10">
-        <v>0.9998632897905619</v>
+        <v>0.9957011735813537</v>
       </c>
       <c r="S10">
-        <v>0.9998632897905619</v>
+        <v>0.9957011735813537</v>
       </c>
       <c r="T10">
-        <v>0.999962143630125</v>
+        <v>0.9973093779567618</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000794004004159</v>
+        <v>1.00118740294612</v>
       </c>
       <c r="D11">
-        <v>0.9966972616613798</v>
+        <v>0.9957929674139092</v>
       </c>
       <c r="E11">
-        <v>0.9966972616613798</v>
+        <v>0.9957929674139092</v>
       </c>
       <c r="F11">
-        <v>1.000843285122039</v>
+        <v>1.00097640001903</v>
       </c>
       <c r="G11">
-        <v>1.000828915914508</v>
+        <v>1.001037916213708</v>
       </c>
       <c r="H11">
-        <v>1.002258147221963</v>
+        <v>1.002563540557851</v>
       </c>
       <c r="I11">
-        <v>0.9981720923069638</v>
+        <v>0.997734964423983</v>
       </c>
       <c r="J11">
-        <v>1.000794004004159</v>
+        <v>1.00118740294612</v>
       </c>
       <c r="K11">
-        <v>1.000794004004159</v>
+        <v>1.00118740294612</v>
       </c>
       <c r="L11">
-        <v>1.000843285122039</v>
+        <v>1.00097640001903</v>
       </c>
       <c r="M11">
-        <v>0.9987702733917095</v>
+        <v>0.9983846837164698</v>
       </c>
       <c r="N11">
-        <v>0.9987702733917095</v>
+        <v>0.9983846837164698</v>
       </c>
       <c r="O11">
-        <v>0.9985708796967944</v>
+        <v>0.9981681106189741</v>
       </c>
       <c r="P11">
-        <v>0.9994448502625261</v>
+        <v>0.9993189234596865</v>
       </c>
       <c r="Q11">
-        <v>0.9994448502625261</v>
+        <v>0.9993189234596865</v>
       </c>
       <c r="R11">
-        <v>0.9997821386979342</v>
+        <v>0.9997860433312948</v>
       </c>
       <c r="S11">
-        <v>0.9997821386979342</v>
+        <v>0.9997860433312948</v>
       </c>
       <c r="T11">
-        <v>0.9999322843718356</v>
+        <v>0.9998821985957669</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9922487180159747</v>
+        <v>1.000620223128565</v>
       </c>
       <c r="D12">
-        <v>1.035590697634032</v>
+        <v>0.9977957513327406</v>
       </c>
       <c r="E12">
-        <v>1.035590697634032</v>
+        <v>0.9977957513327406</v>
       </c>
       <c r="F12">
-        <v>0.9904654422090639</v>
+        <v>1.00051263896283</v>
       </c>
       <c r="G12">
-        <v>0.9909853482461128</v>
+        <v>1.000544004497457</v>
       </c>
       <c r="H12">
-        <v>0.9742348483760883</v>
+        <v>1.00134654511391</v>
       </c>
       <c r="I12">
-        <v>1.019987587429532</v>
+        <v>0.9988125617995768</v>
       </c>
       <c r="J12">
-        <v>0.9922487180159747</v>
+        <v>1.000620223128565</v>
       </c>
       <c r="K12">
-        <v>0.9922487180159747</v>
+        <v>1.000620223128565</v>
       </c>
       <c r="L12">
-        <v>0.9904654422090639</v>
+        <v>1.00051263896283</v>
       </c>
       <c r="M12">
-        <v>1.013028069921548</v>
+        <v>0.9991541951477854</v>
       </c>
       <c r="N12">
-        <v>1.013028069921548</v>
+        <v>0.9991541951477854</v>
       </c>
       <c r="O12">
-        <v>1.015347909090876</v>
+        <v>0.9990403173650492</v>
       </c>
       <c r="P12">
-        <v>1.006101619286357</v>
+        <v>0.9996428711413787</v>
       </c>
       <c r="Q12">
-        <v>1.006101619286357</v>
+        <v>0.9996428711413787</v>
       </c>
       <c r="R12">
-        <v>1.002638393968761</v>
+        <v>0.9998872091381754</v>
       </c>
       <c r="S12">
-        <v>1.002638393968761</v>
+        <v>0.9998872091381754</v>
       </c>
       <c r="T12">
-        <v>1.000585440318467</v>
+        <v>0.9999386208058466</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9970572224990493</v>
+        <v>1.002080646102215</v>
       </c>
       <c r="D13">
-        <v>1.009784018769365</v>
+        <v>0.9926612320988074</v>
       </c>
       <c r="E13">
-        <v>1.009784018769365</v>
+        <v>0.9926612320988074</v>
       </c>
       <c r="F13">
-        <v>0.9978299784127406</v>
+        <v>1.001698050233061</v>
       </c>
       <c r="G13">
-        <v>0.997604682345176</v>
+        <v>1.001809594845464</v>
       </c>
       <c r="H13">
-        <v>0.9943604702010407</v>
+        <v>1.004455258659508</v>
       </c>
       <c r="I13">
-        <v>1.00520236982331</v>
+        <v>0.9960522204942535</v>
       </c>
       <c r="J13">
-        <v>0.9970572224990493</v>
+        <v>1.002080646102215</v>
       </c>
       <c r="K13">
-        <v>0.9970572224990493</v>
+        <v>1.002080646102215</v>
       </c>
       <c r="L13">
-        <v>0.9978299784127406</v>
+        <v>1.001698050233061</v>
       </c>
       <c r="M13">
-        <v>1.003806998591053</v>
+        <v>0.9971796411659339</v>
       </c>
       <c r="N13">
-        <v>1.003806998591053</v>
+        <v>0.9971796411659339</v>
       </c>
       <c r="O13">
-        <v>1.004272122335139</v>
+        <v>0.9968038342753737</v>
       </c>
       <c r="P13">
-        <v>1.001557073227052</v>
+        <v>0.9988133094780277</v>
       </c>
       <c r="Q13">
-        <v>1.001557073227051</v>
+        <v>0.9988133094780277</v>
       </c>
       <c r="R13">
-        <v>1.000432110545051</v>
+        <v>0.9996301436340744</v>
       </c>
       <c r="S13">
-        <v>1.000432110545051</v>
+        <v>0.9996301436340744</v>
       </c>
       <c r="T13">
-        <v>1.000306457008447</v>
+        <v>0.9997928337388848</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.977705090425344</v>
+        <v>1.002787196153073</v>
       </c>
       <c r="D14">
-        <v>1.088593805931357</v>
+        <v>0.9899558381710745</v>
       </c>
       <c r="E14">
-        <v>1.088593805931357</v>
+        <v>0.9899558381710745</v>
       </c>
       <c r="F14">
-        <v>0.9779329153277131</v>
+        <v>1.00235761475879</v>
       </c>
       <c r="G14">
-        <v>0.9778664977828289</v>
+        <v>1.002482855341334</v>
       </c>
       <c r="H14">
-        <v>0.9411978475825253</v>
+        <v>1.006205153674362</v>
       </c>
       <c r="I14">
-        <v>1.048673862633481</v>
+        <v>0.9945751271885981</v>
       </c>
       <c r="J14">
-        <v>0.977705090425344</v>
+        <v>1.002787196153073</v>
       </c>
       <c r="K14">
-        <v>0.977705090425344</v>
+        <v>1.002787196153073</v>
       </c>
       <c r="L14">
-        <v>0.9779329153277131</v>
+        <v>1.00235761475879</v>
       </c>
       <c r="M14">
-        <v>1.033263360629535</v>
+        <v>0.9961567264649323</v>
       </c>
       <c r="N14">
-        <v>1.033263360629535</v>
+        <v>0.9961567264649323</v>
       </c>
       <c r="O14">
-        <v>1.038400194630851</v>
+        <v>0.9956295267061542</v>
       </c>
       <c r="P14">
-        <v>1.014743937228138</v>
+        <v>0.9983668830276459</v>
       </c>
       <c r="Q14">
-        <v>1.014743937228138</v>
+        <v>0.9983668830276459</v>
       </c>
       <c r="R14">
-        <v>1.00548422552744</v>
+        <v>0.9994719613090026</v>
       </c>
       <c r="S14">
-        <v>1.00548422552744</v>
+        <v>0.9994719613090026</v>
       </c>
       <c r="T14">
-        <v>1.001995003280542</v>
+        <v>0.999727297547872</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9941625928970294</v>
+        <v>1.001005401056132</v>
       </c>
       <c r="D15">
-        <v>1.023438890463707</v>
+        <v>0.9963986931585326</v>
       </c>
       <c r="E15">
-        <v>1.023438890463707</v>
+        <v>0.9963986931585326</v>
       </c>
       <c r="F15">
-        <v>0.9941278789637381</v>
+        <v>1.000841952007887</v>
       </c>
       <c r="G15">
-        <v>0.9941379966925324</v>
+        <v>1.000889604391946</v>
       </c>
       <c r="H15">
-        <v>0.9843344142237102</v>
+        <v>1.00221407084924</v>
       </c>
       <c r="I15">
-        <v>1.012899424255258</v>
+        <v>0.9980571086805321</v>
       </c>
       <c r="J15">
-        <v>0.9941625928970294</v>
+        <v>1.001005401056132</v>
       </c>
       <c r="K15">
-        <v>0.9941625928970294</v>
+        <v>1.001005401056132</v>
       </c>
       <c r="L15">
-        <v>0.9941278789637381</v>
+        <v>1.000841952007887</v>
       </c>
       <c r="M15">
-        <v>1.008783384713723</v>
+        <v>0.9986203225832095</v>
       </c>
       <c r="N15">
-        <v>1.008783384713723</v>
+        <v>0.9986203225832095</v>
       </c>
       <c r="O15">
-        <v>1.010155397894234</v>
+        <v>0.9984325846156503</v>
       </c>
       <c r="P15">
-        <v>1.003909787441492</v>
+        <v>0.9994153487408503</v>
       </c>
       <c r="Q15">
-        <v>1.003909787441492</v>
+        <v>0.9994153487408503</v>
       </c>
       <c r="R15">
-        <v>1.001472988805376</v>
+        <v>0.9998128618196706</v>
       </c>
       <c r="S15">
-        <v>1.001472988805376</v>
+        <v>0.9998128618196706</v>
       </c>
       <c r="T15">
-        <v>1.000516866249329</v>
+        <v>0.999901138357378</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.019287442289977</v>
+        <v>1.001945815069796</v>
       </c>
       <c r="D16">
-        <v>0.9299530991668197</v>
+        <v>0.9930447032198529</v>
       </c>
       <c r="E16">
-        <v>0.9299530991668197</v>
+        <v>0.9930447032198529</v>
       </c>
       <c r="F16">
-        <v>1.016525216590303</v>
+        <v>1.001623829449759</v>
       </c>
       <c r="G16">
-        <v>1.017330524015869</v>
+        <v>1.001717701230573</v>
       </c>
       <c r="H16">
-        <v>1.043541080397048</v>
+        <v>1.004268877214932</v>
       </c>
       <c r="I16">
-        <v>0.9621134669101286</v>
+        <v>0.9962491037741025</v>
       </c>
       <c r="J16">
-        <v>1.019287442289977</v>
+        <v>1.001945815069796</v>
       </c>
       <c r="K16">
-        <v>1.019287442289977</v>
+        <v>1.001945815069796</v>
       </c>
       <c r="L16">
-        <v>1.016525216590303</v>
+        <v>1.001623829449759</v>
       </c>
       <c r="M16">
-        <v>0.9732391578785612</v>
+        <v>0.9973342663348057</v>
       </c>
       <c r="N16">
-        <v>0.9732391578785612</v>
+        <v>0.9973342663348057</v>
       </c>
       <c r="O16">
-        <v>0.9695305942224169</v>
+        <v>0.9969725454812379</v>
       </c>
       <c r="P16">
-        <v>0.9885885860156997</v>
+        <v>0.9988714492464693</v>
       </c>
       <c r="Q16">
-        <v>0.9885885860156997</v>
+        <v>0.9988714492464693</v>
       </c>
       <c r="R16">
-        <v>0.996263300084269</v>
+        <v>0.9996400407023012</v>
       </c>
       <c r="S16">
-        <v>0.996263300084269</v>
+        <v>0.9996400407023012</v>
       </c>
       <c r="T16">
-        <v>0.9981251382283572</v>
+        <v>0.9998083383265026</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.015142338039943</v>
+        <v>1.003695542005769</v>
       </c>
       <c r="D17">
-        <v>0.9430689756064737</v>
+        <v>0.9866915709412903</v>
       </c>
       <c r="E17">
-        <v>0.9430689756064737</v>
+        <v>0.9866915709412903</v>
       </c>
       <c r="F17">
-        <v>1.01372743305878</v>
+        <v>1.003122421546222</v>
       </c>
       <c r="G17">
-        <v>1.014139937831475</v>
+        <v>1.00328951180182</v>
       </c>
       <c r="H17">
-        <v>1.03633696606953</v>
+        <v>1.008217288396023</v>
       </c>
       <c r="I17">
-        <v>0.9690153889911328</v>
+        <v>0.9928129990494377</v>
       </c>
       <c r="J17">
-        <v>1.015142338039943</v>
+        <v>1.003695542005769</v>
       </c>
       <c r="K17">
-        <v>1.015142338039943</v>
+        <v>1.003695542005769</v>
       </c>
       <c r="L17">
-        <v>1.01372743305878</v>
+        <v>1.003122421546222</v>
       </c>
       <c r="M17">
-        <v>0.9783982043326267</v>
+        <v>0.994906996243756</v>
       </c>
       <c r="N17">
-        <v>0.9783982043326267</v>
+        <v>0.994906996243756</v>
       </c>
       <c r="O17">
-        <v>0.9752705992187954</v>
+        <v>0.9942089971789833</v>
       </c>
       <c r="P17">
-        <v>0.990646248901732</v>
+        <v>0.9978365114977602</v>
       </c>
       <c r="Q17">
-        <v>0.990646248901732</v>
+        <v>0.9978365114977602</v>
       </c>
       <c r="R17">
-        <v>0.9967702711862847</v>
+        <v>0.9993012691247624</v>
       </c>
       <c r="S17">
-        <v>0.9967702711862847</v>
+        <v>0.9993012691247624</v>
       </c>
       <c r="T17">
-        <v>0.998571839932889</v>
+        <v>0.9996382222900936</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.006849206474336</v>
+        <v>1.00540464121328</v>
       </c>
       <c r="D18">
-        <v>0.9694055649537139</v>
+        <v>0.9804903278335</v>
       </c>
       <c r="E18">
-        <v>0.9694055649537139</v>
+        <v>0.9804903278335</v>
       </c>
       <c r="F18">
-        <v>1.008092721176132</v>
+        <v>1.004584504596205</v>
       </c>
       <c r="G18">
-        <v>1.00773017879794</v>
+        <v>1.004823610240445</v>
       </c>
       <c r="H18">
-        <v>1.021817450654877</v>
+        <v>1.012069142504221</v>
       </c>
       <c r="I18">
-        <v>0.9828852738291289</v>
+        <v>0.9894594801750541</v>
       </c>
       <c r="J18">
-        <v>1.006849206474336</v>
+        <v>1.00540464121328</v>
       </c>
       <c r="K18">
-        <v>1.006849206474336</v>
+        <v>1.00540464121328</v>
       </c>
       <c r="L18">
-        <v>1.008092721176132</v>
+        <v>1.004584504596205</v>
       </c>
       <c r="M18">
-        <v>0.9887491430649228</v>
+        <v>0.9925374162148526</v>
       </c>
       <c r="N18">
-        <v>0.9887491430649228</v>
+        <v>0.9925374162148526</v>
       </c>
       <c r="O18">
-        <v>0.9867945199863248</v>
+        <v>0.9915114375349198</v>
       </c>
       <c r="P18">
-        <v>0.9947824975347271</v>
+        <v>0.9968264912143286</v>
       </c>
       <c r="Q18">
-        <v>0.9947824975347271</v>
+        <v>0.9968264912143286</v>
       </c>
       <c r="R18">
-        <v>0.9977991747696293</v>
+        <v>0.9989710287140665</v>
       </c>
       <c r="S18">
-        <v>0.9977991747696293</v>
+        <v>0.9989710287140665</v>
       </c>
       <c r="T18">
-        <v>0.9994633993143546</v>
+        <v>0.9994719510937844</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.007217407178615</v>
+        <v>1.000054809097421</v>
       </c>
       <c r="D19">
-        <v>0.9665297188666453</v>
+        <v>0.999751315339086</v>
       </c>
       <c r="E19">
-        <v>0.9665297188666453</v>
+        <v>0.999751315339086</v>
       </c>
       <c r="F19">
-        <v>1.009006548649205</v>
+        <v>1.000066260844592</v>
       </c>
       <c r="G19">
-        <v>1.008484935193948</v>
+        <v>1.00006292239349</v>
       </c>
       <c r="H19">
-        <v>1.024358260732015</v>
+        <v>1.000178877597452</v>
       </c>
       <c r="I19">
-        <v>0.9811772844020181</v>
+        <v>0.999860573510276</v>
       </c>
       <c r="J19">
-        <v>1.007217407178615</v>
+        <v>1.000054809097421</v>
       </c>
       <c r="K19">
-        <v>1.007217407178615</v>
+        <v>1.000054809097421</v>
       </c>
       <c r="L19">
-        <v>1.009006548649205</v>
+        <v>1.000066260844592</v>
       </c>
       <c r="M19">
-        <v>0.9877681337579253</v>
+        <v>0.9999087880918388</v>
       </c>
       <c r="N19">
-        <v>0.9877681337579253</v>
+        <v>0.9999087880918388</v>
       </c>
       <c r="O19">
-        <v>0.9855711839726228</v>
+        <v>0.9998927165646512</v>
       </c>
       <c r="P19">
-        <v>0.9942512248981551</v>
+        <v>0.9999574617603663</v>
       </c>
       <c r="Q19">
-        <v>0.9942512248981551</v>
+        <v>0.9999574617603663</v>
       </c>
       <c r="R19">
-        <v>0.99749277046827</v>
+        <v>0.99998179859463</v>
       </c>
       <c r="S19">
-        <v>0.99749277046827</v>
+        <v>0.99998179859463</v>
       </c>
       <c r="T19">
-        <v>0.9994623591704078</v>
+        <v>0.9999957931303861</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9999600749751919</v>
+        <v>1.000151172944123</v>
       </c>
       <c r="D20">
-        <v>1.000012254198302</v>
+        <v>0.9993373898434933</v>
       </c>
       <c r="E20">
-        <v>1.000012254198302</v>
+        <v>0.9993373898434933</v>
       </c>
       <c r="F20">
-        <v>1.000017414677792</v>
+        <v>1.00017369607509</v>
       </c>
       <c r="G20">
-        <v>1.000000697578546</v>
+        <v>1.000167129839957</v>
       </c>
       <c r="H20">
-        <v>1.000057361817249</v>
+        <v>1.000467481356214</v>
       </c>
       <c r="I20">
-        <v>0.9999934701166738</v>
+        <v>0.9996303523675696</v>
       </c>
       <c r="J20">
-        <v>0.9999600749751919</v>
+        <v>1.000151172944123</v>
       </c>
       <c r="K20">
-        <v>0.9999600749751919</v>
+        <v>1.000151172944123</v>
       </c>
       <c r="L20">
-        <v>1.000017414677792</v>
+        <v>1.00017369607509</v>
       </c>
       <c r="M20">
-        <v>1.000014834438047</v>
+        <v>0.9997555429592915</v>
       </c>
       <c r="N20">
-        <v>1.000014834438047</v>
+        <v>0.9997555429592915</v>
       </c>
       <c r="O20">
-        <v>1.000007712997589</v>
+        <v>0.9997138127620508</v>
       </c>
       <c r="P20">
-        <v>0.9999965812837619</v>
+        <v>0.9998874196209021</v>
       </c>
       <c r="Q20">
-        <v>0.9999965812837619</v>
+        <v>0.9998874196209021</v>
       </c>
       <c r="R20">
-        <v>0.9999874547066194</v>
+        <v>0.9999533579517075</v>
       </c>
       <c r="S20">
-        <v>0.9999874547066194</v>
+        <v>0.9999533579517075</v>
       </c>
       <c r="T20">
-        <v>1.000006878893959</v>
+        <v>0.999987870404408</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.000123816162829</v>
+        <v>1.000219288453249</v>
       </c>
       <c r="D21">
-        <v>0.9996629730186686</v>
+        <v>0.9990800832963581</v>
       </c>
       <c r="E21">
-        <v>0.9996629730186686</v>
+        <v>0.9990800832963581</v>
       </c>
       <c r="F21">
-        <v>1.000062279263076</v>
+        <v>1.00023591792791</v>
       </c>
       <c r="G21">
-        <v>1.000080219422852</v>
+        <v>1.000231070108208</v>
       </c>
       <c r="H21">
-        <v>1.000154356865046</v>
+        <v>1.000632282669324</v>
       </c>
       <c r="I21">
-        <v>0.9998288763691064</v>
+        <v>0.9994901975224567</v>
       </c>
       <c r="J21">
-        <v>1.000123816162829</v>
+        <v>1.000219288453249</v>
       </c>
       <c r="K21">
-        <v>1.000123816162829</v>
+        <v>1.000219288453249</v>
       </c>
       <c r="L21">
-        <v>1.000062279263076</v>
+        <v>1.00023591792791</v>
       </c>
       <c r="M21">
-        <v>0.9998626261408721</v>
+        <v>0.9996580006121341</v>
       </c>
       <c r="N21">
-        <v>0.9998626261408721</v>
+        <v>0.9996580006121341</v>
       </c>
       <c r="O21">
-        <v>0.9998513762169502</v>
+        <v>0.9996020662489083</v>
       </c>
       <c r="P21">
-        <v>0.9999496894815244</v>
+        <v>0.9998450965591724</v>
       </c>
       <c r="Q21">
-        <v>0.9999496894815244</v>
+        <v>0.9998450965591724</v>
       </c>
       <c r="R21">
-        <v>0.9999932211518506</v>
+        <v>0.9999386445326917</v>
       </c>
       <c r="S21">
-        <v>0.9999932211518506</v>
+        <v>0.9999386445326917</v>
       </c>
       <c r="T21">
-        <v>0.9999854201835964</v>
+        <v>0.9999814733295843</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.000199672431653</v>
+        <v>1.000461405736789</v>
       </c>
       <c r="D22">
-        <v>0.9989588120580243</v>
+        <v>0.9980145743559868</v>
       </c>
       <c r="E22">
-        <v>0.9989588120580243</v>
+        <v>0.9980145743559868</v>
       </c>
       <c r="F22">
-        <v>1.000293978664526</v>
+        <v>1.000515773332683</v>
       </c>
       <c r="G22">
-        <v>1.000266484369937</v>
+        <v>1.000499922504469</v>
       </c>
       <c r="H22">
-        <v>1.000801906042377</v>
+        <v>1.001385750990168</v>
       </c>
       <c r="I22">
-        <v>0.9994055202432048</v>
+        <v>0.9988954348606539</v>
       </c>
       <c r="J22">
-        <v>1.000199672431653</v>
+        <v>1.000461405736789</v>
       </c>
       <c r="K22">
-        <v>1.000199672431653</v>
+        <v>1.000461405736789</v>
       </c>
       <c r="L22">
-        <v>1.000293978664526</v>
+        <v>1.000515773332683</v>
       </c>
       <c r="M22">
-        <v>0.999626395361275</v>
+        <v>0.999265173844335</v>
       </c>
       <c r="N22">
-        <v>0.999626395361275</v>
+        <v>0.999265173844335</v>
       </c>
       <c r="O22">
-        <v>0.9995527703219182</v>
+        <v>0.9991419275164413</v>
       </c>
       <c r="P22">
-        <v>0.9998174877180676</v>
+        <v>0.9996639178084864</v>
       </c>
       <c r="Q22">
-        <v>0.9998174877180676</v>
+        <v>0.9996639178084864</v>
       </c>
       <c r="R22">
-        <v>0.9999130338964639</v>
+        <v>0.9998632897905619</v>
       </c>
       <c r="S22">
-        <v>0.9999130338964639</v>
+        <v>0.9998632897905619</v>
       </c>
       <c r="T22">
-        <v>0.999987728968287</v>
+        <v>0.999962143630125</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1.000794004004159</v>
+      </c>
+      <c r="D23">
+        <v>0.9966972616613798</v>
+      </c>
+      <c r="E23">
+        <v>0.9966972616613798</v>
+      </c>
+      <c r="F23">
+        <v>1.000843285122039</v>
+      </c>
+      <c r="G23">
+        <v>1.000828915914508</v>
+      </c>
+      <c r="H23">
+        <v>1.002258147221963</v>
+      </c>
+      <c r="I23">
+        <v>0.9981720923069638</v>
+      </c>
+      <c r="J23">
+        <v>1.000794004004159</v>
+      </c>
+      <c r="K23">
+        <v>1.000794004004159</v>
+      </c>
+      <c r="L23">
+        <v>1.000843285122039</v>
+      </c>
+      <c r="M23">
+        <v>0.9987702733917095</v>
+      </c>
+      <c r="N23">
+        <v>0.9987702733917095</v>
+      </c>
+      <c r="O23">
+        <v>0.9985708796967944</v>
+      </c>
+      <c r="P23">
+        <v>0.9994448502625261</v>
+      </c>
+      <c r="Q23">
+        <v>0.9994448502625261</v>
+      </c>
+      <c r="R23">
+        <v>0.9997821386979342</v>
+      </c>
+      <c r="S23">
+        <v>0.9997821386979342</v>
+      </c>
+      <c r="T23">
+        <v>0.9999322843718356</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9922487180159747</v>
+      </c>
+      <c r="D24">
+        <v>1.035590697634032</v>
+      </c>
+      <c r="E24">
+        <v>1.035590697634032</v>
+      </c>
+      <c r="F24">
+        <v>0.9904654422090639</v>
+      </c>
+      <c r="G24">
+        <v>0.9909853482461128</v>
+      </c>
+      <c r="H24">
+        <v>0.9742348483760883</v>
+      </c>
+      <c r="I24">
+        <v>1.019987587429532</v>
+      </c>
+      <c r="J24">
+        <v>0.9922487180159747</v>
+      </c>
+      <c r="K24">
+        <v>0.9922487180159747</v>
+      </c>
+      <c r="L24">
+        <v>0.9904654422090639</v>
+      </c>
+      <c r="M24">
+        <v>1.013028069921548</v>
+      </c>
+      <c r="N24">
+        <v>1.013028069921548</v>
+      </c>
+      <c r="O24">
+        <v>1.015347909090876</v>
+      </c>
+      <c r="P24">
+        <v>1.006101619286357</v>
+      </c>
+      <c r="Q24">
+        <v>1.006101619286357</v>
+      </c>
+      <c r="R24">
+        <v>1.002638393968761</v>
+      </c>
+      <c r="S24">
+        <v>1.002638393968761</v>
+      </c>
+      <c r="T24">
+        <v>1.000585440318467</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9970572224990493</v>
+      </c>
+      <c r="D25">
+        <v>1.009784018769365</v>
+      </c>
+      <c r="E25">
+        <v>1.009784018769365</v>
+      </c>
+      <c r="F25">
+        <v>0.9978299784127406</v>
+      </c>
+      <c r="G25">
+        <v>0.997604682345176</v>
+      </c>
+      <c r="H25">
+        <v>0.9943604702010407</v>
+      </c>
+      <c r="I25">
+        <v>1.00520236982331</v>
+      </c>
+      <c r="J25">
+        <v>0.9970572224990493</v>
+      </c>
+      <c r="K25">
+        <v>0.9970572224990493</v>
+      </c>
+      <c r="L25">
+        <v>0.9978299784127406</v>
+      </c>
+      <c r="M25">
+        <v>1.003806998591053</v>
+      </c>
+      <c r="N25">
+        <v>1.003806998591053</v>
+      </c>
+      <c r="O25">
+        <v>1.004272122335139</v>
+      </c>
+      <c r="P25">
+        <v>1.001557073227052</v>
+      </c>
+      <c r="Q25">
+        <v>1.001557073227051</v>
+      </c>
+      <c r="R25">
+        <v>1.000432110545051</v>
+      </c>
+      <c r="S25">
+        <v>1.000432110545051</v>
+      </c>
+      <c r="T25">
+        <v>1.000306457008447</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.977705090425344</v>
+      </c>
+      <c r="D26">
+        <v>1.088593805931357</v>
+      </c>
+      <c r="E26">
+        <v>1.088593805931357</v>
+      </c>
+      <c r="F26">
+        <v>0.9779329153277131</v>
+      </c>
+      <c r="G26">
+        <v>0.9778664977828289</v>
+      </c>
+      <c r="H26">
+        <v>0.9411978475825253</v>
+      </c>
+      <c r="I26">
+        <v>1.048673862633481</v>
+      </c>
+      <c r="J26">
+        <v>0.977705090425344</v>
+      </c>
+      <c r="K26">
+        <v>0.977705090425344</v>
+      </c>
+      <c r="L26">
+        <v>0.9779329153277131</v>
+      </c>
+      <c r="M26">
+        <v>1.033263360629535</v>
+      </c>
+      <c r="N26">
+        <v>1.033263360629535</v>
+      </c>
+      <c r="O26">
+        <v>1.038400194630851</v>
+      </c>
+      <c r="P26">
+        <v>1.014743937228138</v>
+      </c>
+      <c r="Q26">
+        <v>1.014743937228138</v>
+      </c>
+      <c r="R26">
+        <v>1.00548422552744</v>
+      </c>
+      <c r="S26">
+        <v>1.00548422552744</v>
+      </c>
+      <c r="T26">
+        <v>1.001995003280542</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9941625928970294</v>
+      </c>
+      <c r="D27">
+        <v>1.023438890463707</v>
+      </c>
+      <c r="E27">
+        <v>1.023438890463707</v>
+      </c>
+      <c r="F27">
+        <v>0.9941278789637381</v>
+      </c>
+      <c r="G27">
+        <v>0.9941379966925324</v>
+      </c>
+      <c r="H27">
+        <v>0.9843344142237102</v>
+      </c>
+      <c r="I27">
+        <v>1.012899424255258</v>
+      </c>
+      <c r="J27">
+        <v>0.9941625928970294</v>
+      </c>
+      <c r="K27">
+        <v>0.9941625928970294</v>
+      </c>
+      <c r="L27">
+        <v>0.9941278789637381</v>
+      </c>
+      <c r="M27">
+        <v>1.008783384713723</v>
+      </c>
+      <c r="N27">
+        <v>1.008783384713723</v>
+      </c>
+      <c r="O27">
+        <v>1.010155397894234</v>
+      </c>
+      <c r="P27">
+        <v>1.003909787441492</v>
+      </c>
+      <c r="Q27">
+        <v>1.003909787441492</v>
+      </c>
+      <c r="R27">
+        <v>1.001472988805376</v>
+      </c>
+      <c r="S27">
+        <v>1.001472988805376</v>
+      </c>
+      <c r="T27">
+        <v>1.000516866249329</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.019287442289977</v>
+      </c>
+      <c r="D28">
+        <v>0.9299530991668197</v>
+      </c>
+      <c r="E28">
+        <v>0.9299530991668197</v>
+      </c>
+      <c r="F28">
+        <v>1.016525216590303</v>
+      </c>
+      <c r="G28">
+        <v>1.017330524015869</v>
+      </c>
+      <c r="H28">
+        <v>1.043541080397048</v>
+      </c>
+      <c r="I28">
+        <v>0.9621134669101286</v>
+      </c>
+      <c r="J28">
+        <v>1.019287442289977</v>
+      </c>
+      <c r="K28">
+        <v>1.019287442289977</v>
+      </c>
+      <c r="L28">
+        <v>1.016525216590303</v>
+      </c>
+      <c r="M28">
+        <v>0.9732391578785612</v>
+      </c>
+      <c r="N28">
+        <v>0.9732391578785612</v>
+      </c>
+      <c r="O28">
+        <v>0.9695305942224169</v>
+      </c>
+      <c r="P28">
+        <v>0.9885885860156997</v>
+      </c>
+      <c r="Q28">
+        <v>0.9885885860156997</v>
+      </c>
+      <c r="R28">
+        <v>0.996263300084269</v>
+      </c>
+      <c r="S28">
+        <v>0.996263300084269</v>
+      </c>
+      <c r="T28">
+        <v>0.9981251382283572</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.015142338039943</v>
+      </c>
+      <c r="D29">
+        <v>0.9430689756064737</v>
+      </c>
+      <c r="E29">
+        <v>0.9430689756064737</v>
+      </c>
+      <c r="F29">
+        <v>1.01372743305878</v>
+      </c>
+      <c r="G29">
+        <v>1.014139937831475</v>
+      </c>
+      <c r="H29">
+        <v>1.03633696606953</v>
+      </c>
+      <c r="I29">
+        <v>0.9690153889911328</v>
+      </c>
+      <c r="J29">
+        <v>1.015142338039943</v>
+      </c>
+      <c r="K29">
+        <v>1.015142338039943</v>
+      </c>
+      <c r="L29">
+        <v>1.01372743305878</v>
+      </c>
+      <c r="M29">
+        <v>0.9783982043326267</v>
+      </c>
+      <c r="N29">
+        <v>0.9783982043326267</v>
+      </c>
+      <c r="O29">
+        <v>0.9752705992187954</v>
+      </c>
+      <c r="P29">
+        <v>0.990646248901732</v>
+      </c>
+      <c r="Q29">
+        <v>0.990646248901732</v>
+      </c>
+      <c r="R29">
+        <v>0.9967702711862847</v>
+      </c>
+      <c r="S29">
+        <v>0.9967702711862847</v>
+      </c>
+      <c r="T29">
+        <v>0.998571839932889</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.006849206474336</v>
+      </c>
+      <c r="D30">
+        <v>0.9694055649537139</v>
+      </c>
+      <c r="E30">
+        <v>0.9694055649537139</v>
+      </c>
+      <c r="F30">
+        <v>1.008092721176132</v>
+      </c>
+      <c r="G30">
+        <v>1.00773017879794</v>
+      </c>
+      <c r="H30">
+        <v>1.021817450654877</v>
+      </c>
+      <c r="I30">
+        <v>0.9828852738291289</v>
+      </c>
+      <c r="J30">
+        <v>1.006849206474336</v>
+      </c>
+      <c r="K30">
+        <v>1.006849206474336</v>
+      </c>
+      <c r="L30">
+        <v>1.008092721176132</v>
+      </c>
+      <c r="M30">
+        <v>0.9887491430649228</v>
+      </c>
+      <c r="N30">
+        <v>0.9887491430649228</v>
+      </c>
+      <c r="O30">
+        <v>0.9867945199863248</v>
+      </c>
+      <c r="P30">
+        <v>0.9947824975347271</v>
+      </c>
+      <c r="Q30">
+        <v>0.9947824975347271</v>
+      </c>
+      <c r="R30">
+        <v>0.9977991747696293</v>
+      </c>
+      <c r="S30">
+        <v>0.9977991747696293</v>
+      </c>
+      <c r="T30">
+        <v>0.9994633993143546</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>1.007217407178615</v>
+      </c>
+      <c r="D31">
+        <v>0.9665297188666453</v>
+      </c>
+      <c r="E31">
+        <v>0.9665297188666453</v>
+      </c>
+      <c r="F31">
+        <v>1.009006548649205</v>
+      </c>
+      <c r="G31">
+        <v>1.008484935193948</v>
+      </c>
+      <c r="H31">
+        <v>1.024358260732015</v>
+      </c>
+      <c r="I31">
+        <v>0.9811772844020181</v>
+      </c>
+      <c r="J31">
+        <v>1.007217407178615</v>
+      </c>
+      <c r="K31">
+        <v>1.007217407178615</v>
+      </c>
+      <c r="L31">
+        <v>1.009006548649205</v>
+      </c>
+      <c r="M31">
+        <v>0.9877681337579253</v>
+      </c>
+      <c r="N31">
+        <v>0.9877681337579253</v>
+      </c>
+      <c r="O31">
+        <v>0.9855711839726228</v>
+      </c>
+      <c r="P31">
+        <v>0.9942512248981551</v>
+      </c>
+      <c r="Q31">
+        <v>0.9942512248981551</v>
+      </c>
+      <c r="R31">
+        <v>0.99749277046827</v>
+      </c>
+      <c r="S31">
+        <v>0.99749277046827</v>
+      </c>
+      <c r="T31">
+        <v>0.9994623591704078</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>1.023678468493151</v>
+      </c>
+      <c r="D32">
+        <v>0.9163310932876712</v>
+      </c>
+      <c r="E32">
+        <v>0.9163310932876712</v>
+      </c>
+      <c r="F32">
+        <v>1.019383204657534</v>
+      </c>
+      <c r="G32">
+        <v>1.020635459452055</v>
+      </c>
+      <c r="H32">
+        <v>1.050870365479452</v>
+      </c>
+      <c r="I32">
+        <v>0.9549761539726026</v>
+      </c>
+      <c r="J32">
+        <v>1.023678468493151</v>
+      </c>
+      <c r="K32">
+        <v>1.023678468493151</v>
+      </c>
+      <c r="L32">
+        <v>1.019383204657534</v>
+      </c>
+      <c r="M32">
+        <v>0.9678571489726027</v>
+      </c>
+      <c r="N32">
+        <v>0.9678571489726027</v>
+      </c>
+      <c r="O32">
+        <v>0.9635634839726026</v>
+      </c>
+      <c r="P32">
+        <v>0.9864642554794522</v>
+      </c>
+      <c r="Q32">
+        <v>0.9864642554794522</v>
+      </c>
+      <c r="R32">
+        <v>0.995767808732877</v>
+      </c>
+      <c r="S32">
+        <v>0.995767808732877</v>
+      </c>
+      <c r="T32">
+        <v>0.9976457908904109</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>1.007648322631579</v>
+      </c>
+      <c r="D33">
+        <v>0.9537486157894736</v>
+      </c>
+      <c r="E33">
+        <v>0.9537486157894736</v>
+      </c>
+      <c r="F33">
+        <v>1.013737583684211</v>
+      </c>
+      <c r="G33">
+        <v>1.01196228631579</v>
+      </c>
+      <c r="H33">
+        <v>1.037793427368421</v>
+      </c>
+      <c r="I33">
+        <v>0.9731525063157895</v>
+      </c>
+      <c r="J33">
+        <v>1.007648322631579</v>
+      </c>
+      <c r="K33">
+        <v>1.007648322631579</v>
+      </c>
+      <c r="L33">
+        <v>1.013737583684211</v>
+      </c>
+      <c r="M33">
+        <v>0.9837430997368422</v>
+      </c>
+      <c r="N33">
+        <v>0.9837430997368422</v>
+      </c>
+      <c r="O33">
+        <v>0.9802129019298246</v>
+      </c>
+      <c r="P33">
+        <v>0.9917115073684211</v>
+      </c>
+      <c r="Q33">
+        <v>0.9917115073684211</v>
+      </c>
+      <c r="R33">
+        <v>0.9956957111842105</v>
+      </c>
+      <c r="S33">
+        <v>0.9956957111842105</v>
+      </c>
+      <c r="T33">
+        <v>0.9996737903508772</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1.027809410526316</v>
+      </c>
+      <c r="D34">
+        <v>0.9013526257894738</v>
+      </c>
+      <c r="E34">
+        <v>0.9013526257894738</v>
+      </c>
+      <c r="F34">
+        <v>1.022913189473684</v>
+      </c>
+      <c r="G34">
+        <v>1.024340652631579</v>
+      </c>
+      <c r="H34">
+        <v>1.060169231578947</v>
+      </c>
+      <c r="I34">
+        <v>0.9468770710526315</v>
+      </c>
+      <c r="J34">
+        <v>1.027809410526316</v>
+      </c>
+      <c r="K34">
+        <v>1.027809410526316</v>
+      </c>
+      <c r="L34">
+        <v>1.022913189473684</v>
+      </c>
+      <c r="M34">
+        <v>0.962132907631579</v>
+      </c>
+      <c r="N34">
+        <v>0.962132907631579</v>
+      </c>
+      <c r="O34">
+        <v>0.9570476287719298</v>
+      </c>
+      <c r="P34">
+        <v>0.984025075263158</v>
+      </c>
+      <c r="Q34">
+        <v>0.984025075263158</v>
+      </c>
+      <c r="R34">
+        <v>0.9949711590789474</v>
+      </c>
+      <c r="S34">
+        <v>0.9949711590789474</v>
+      </c>
+      <c r="T34">
+        <v>0.9972436968421053</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>1.025453807412359</v>
+      </c>
+      <c r="D35">
+        <v>0.8796450444302782</v>
+      </c>
+      <c r="E35">
+        <v>0.8796450444302782</v>
+      </c>
+      <c r="F35">
+        <v>1.032663688839514</v>
+      </c>
+      <c r="G35">
+        <v>1.030561676734504</v>
+      </c>
+      <c r="H35">
+        <v>1.08847647030067</v>
+      </c>
+      <c r="I35">
+        <v>0.9321362020860152</v>
+      </c>
+      <c r="J35">
+        <v>1.025453807412359</v>
+      </c>
+      <c r="K35">
+        <v>1.025453807412359</v>
+      </c>
+      <c r="L35">
+        <v>1.032663688839514</v>
+      </c>
+      <c r="M35">
+        <v>0.9561543666348962</v>
+      </c>
+      <c r="N35">
+        <v>0.9561543666348962</v>
+      </c>
+      <c r="O35">
+        <v>0.9481483117852693</v>
+      </c>
+      <c r="P35">
+        <v>0.9792541802273839</v>
+      </c>
+      <c r="Q35">
+        <v>0.9792541802273839</v>
+      </c>
+      <c r="R35">
+        <v>0.9908040870236277</v>
+      </c>
+      <c r="S35">
+        <v>0.9908040870236277</v>
+      </c>
+      <c r="T35">
+        <v>0.9981561483005567</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0.9999600749751919</v>
+      </c>
+      <c r="D36">
+        <v>1.000012254198302</v>
+      </c>
+      <c r="E36">
+        <v>1.000012254198302</v>
+      </c>
+      <c r="F36">
+        <v>1.000017414677792</v>
+      </c>
+      <c r="G36">
+        <v>1.000000697578546</v>
+      </c>
+      <c r="H36">
+        <v>1.000057361817249</v>
+      </c>
+      <c r="I36">
+        <v>0.9999934701166738</v>
+      </c>
+      <c r="J36">
+        <v>0.9999600749751919</v>
+      </c>
+      <c r="K36">
+        <v>0.9999600749751919</v>
+      </c>
+      <c r="L36">
+        <v>1.000017414677792</v>
+      </c>
+      <c r="M36">
+        <v>1.000014834438047</v>
+      </c>
+      <c r="N36">
+        <v>1.000014834438047</v>
+      </c>
+      <c r="O36">
+        <v>1.000007712997589</v>
+      </c>
+      <c r="P36">
+        <v>0.9999965812837619</v>
+      </c>
+      <c r="Q36">
+        <v>0.9999965812837619</v>
+      </c>
+      <c r="R36">
+        <v>0.9999874547066194</v>
+      </c>
+      <c r="S36">
+        <v>0.9999874547066194</v>
+      </c>
+      <c r="T36">
+        <v>1.000006878893959</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>1.000123816162829</v>
+      </c>
+      <c r="D37">
+        <v>0.9996629730186686</v>
+      </c>
+      <c r="E37">
+        <v>0.9996629730186686</v>
+      </c>
+      <c r="F37">
+        <v>1.000062279263076</v>
+      </c>
+      <c r="G37">
+        <v>1.000080219422852</v>
+      </c>
+      <c r="H37">
+        <v>1.000154356865046</v>
+      </c>
+      <c r="I37">
+        <v>0.9998288763691064</v>
+      </c>
+      <c r="J37">
+        <v>1.000123816162829</v>
+      </c>
+      <c r="K37">
+        <v>1.000123816162829</v>
+      </c>
+      <c r="L37">
+        <v>1.000062279263076</v>
+      </c>
+      <c r="M37">
+        <v>0.9998626261408721</v>
+      </c>
+      <c r="N37">
+        <v>0.9998626261408721</v>
+      </c>
+      <c r="O37">
+        <v>0.9998513762169502</v>
+      </c>
+      <c r="P37">
+        <v>0.9999496894815244</v>
+      </c>
+      <c r="Q37">
+        <v>0.9999496894815244</v>
+      </c>
+      <c r="R37">
+        <v>0.9999932211518506</v>
+      </c>
+      <c r="S37">
+        <v>0.9999932211518506</v>
+      </c>
+      <c r="T37">
+        <v>0.9999854201835964</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>1.000199672431653</v>
+      </c>
+      <c r="D38">
+        <v>0.9989588120580243</v>
+      </c>
+      <c r="E38">
+        <v>0.9989588120580243</v>
+      </c>
+      <c r="F38">
+        <v>1.000293978664526</v>
+      </c>
+      <c r="G38">
+        <v>1.000266484369937</v>
+      </c>
+      <c r="H38">
+        <v>1.000801906042377</v>
+      </c>
+      <c r="I38">
+        <v>0.9994055202432048</v>
+      </c>
+      <c r="J38">
+        <v>1.000199672431653</v>
+      </c>
+      <c r="K38">
+        <v>1.000199672431653</v>
+      </c>
+      <c r="L38">
+        <v>1.000293978664526</v>
+      </c>
+      <c r="M38">
+        <v>0.999626395361275</v>
+      </c>
+      <c r="N38">
+        <v>0.999626395361275</v>
+      </c>
+      <c r="O38">
+        <v>0.9995527703219182</v>
+      </c>
+      <c r="P38">
+        <v>0.9998174877180676</v>
+      </c>
+      <c r="Q38">
+        <v>0.9998174877180676</v>
+      </c>
+      <c r="R38">
+        <v>0.9999130338964639</v>
+      </c>
+      <c r="S38">
+        <v>0.9999130338964639</v>
+      </c>
+      <c r="T38">
+        <v>0.999987728968287</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>1.00034198779231</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>0.9976382078369553</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>0.9976382078369553</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>1.000728485021599</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.000615799213963</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>1.002016238989799</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.9986115657253768</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>1.00034198779231</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.00034198779231</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.000728485021599</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.9991833464292772</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>0.9991833464292772</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>0.9989927528613104</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.9995695602169548</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>0.9995695602169546</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.9997626671107933</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9997626671107933</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>0.9999920474300005</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>1.007243669749104</v>
+      </c>
+      <c r="D40">
+        <v>0.9670238189360572</v>
+      </c>
+      <c r="E40">
+        <v>0.9670238189360572</v>
+      </c>
+      <c r="F40">
+        <v>1.008799811900656</v>
+      </c>
+      <c r="G40">
+        <v>1.008346124531522</v>
+      </c>
+      <c r="H40">
+        <v>1.023762564124166</v>
+      </c>
+      <c r="I40">
+        <v>0.9815029651521375</v>
+      </c>
+      <c r="J40">
+        <v>1.007243669749104</v>
+      </c>
+      <c r="K40">
+        <v>1.007243669749104</v>
+      </c>
+      <c r="L40">
+        <v>1.008799811900656</v>
+      </c>
+      <c r="M40">
+        <v>0.9879118154183568</v>
+      </c>
+      <c r="N40">
+        <v>0.9879118154183568</v>
+      </c>
+      <c r="O40">
+        <v>0.9857755319962838</v>
+      </c>
+      <c r="P40">
+        <v>0.9943557668619393</v>
+      </c>
+      <c r="Q40">
+        <v>0.9943557668619393</v>
+      </c>
+      <c r="R40">
+        <v>0.9975777425837304</v>
+      </c>
+      <c r="S40">
+        <v>0.9975777425837304</v>
+      </c>
+      <c r="T40">
+        <v>0.9994464923989406</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.9996207634338379</v>
+      </c>
+      <c r="D41">
+        <v>1.002261667028792</v>
+      </c>
+      <c r="E41">
+        <v>1.002261667028792</v>
+      </c>
+      <c r="F41">
+        <v>0.9993311477905632</v>
+      </c>
+      <c r="G41">
+        <v>0.99941558417096</v>
+      </c>
+      <c r="H41">
+        <v>0.9981612284581175</v>
+      </c>
+      <c r="I41">
+        <v>1.001310943686295</v>
+      </c>
+      <c r="J41">
+        <v>0.9996207634338379</v>
+      </c>
+      <c r="K41">
+        <v>0.9996207634338379</v>
+      </c>
+      <c r="L41">
+        <v>0.9993311477905632</v>
+      </c>
+      <c r="M41">
+        <v>1.000796407409677</v>
+      </c>
+      <c r="N41">
+        <v>1.000796407409677</v>
+      </c>
+      <c r="O41">
+        <v>1.000967919501883</v>
+      </c>
+      <c r="P41">
+        <v>1.000404526084398</v>
+      </c>
+      <c r="Q41">
+        <v>1.000404526084397</v>
+      </c>
+      <c r="R41">
+        <v>1.000208585421758</v>
+      </c>
+      <c r="S41">
+        <v>1.000208585421758</v>
+      </c>
+      <c r="T41">
+        <v>1.000016889094761</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>1.014161350422206</v>
+      </c>
+      <c r="D42">
+        <v>0.9420937942199349</v>
+      </c>
+      <c r="E42">
+        <v>0.9420937942199349</v>
+      </c>
+      <c r="F42">
+        <v>1.014651660963493</v>
+      </c>
+      <c r="G42">
+        <v>1.014508712253396</v>
+      </c>
+      <c r="H42">
+        <v>1.039164477376351</v>
+      </c>
+      <c r="I42">
+        <v>0.9680381169102616</v>
+      </c>
+      <c r="J42">
+        <v>1.014161350422206</v>
+      </c>
+      <c r="K42">
+        <v>1.014161350422206</v>
+      </c>
+      <c r="L42">
+        <v>1.014651660963493</v>
+      </c>
+      <c r="M42">
+        <v>0.9783727275917138</v>
+      </c>
+      <c r="N42">
+        <v>0.9783727275917138</v>
+      </c>
+      <c r="O42">
+        <v>0.9749278573645631</v>
+      </c>
+      <c r="P42">
+        <v>0.9903022685352112</v>
+      </c>
+      <c r="Q42">
+        <v>0.9903022685352113</v>
+      </c>
+      <c r="R42">
+        <v>0.99626703900696</v>
+      </c>
+      <c r="S42">
+        <v>0.99626703900696</v>
+      </c>
+      <c r="T42">
+        <v>0.998769685357607</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Alpha4F-HW35.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha4F-HW35.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,46 +85,43 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
-  </si>
-  <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.001005401056132</v>
+        <v>1.000151172944123</v>
       </c>
       <c r="D3">
-        <v>0.9963986931585326</v>
+        <v>0.9993373898434933</v>
       </c>
       <c r="E3">
-        <v>1.000841952007887</v>
+        <v>0.9993373898434933</v>
       </c>
       <c r="F3">
-        <v>1.001005401056132</v>
+        <v>1.00017369607509</v>
       </c>
       <c r="G3">
-        <v>1.00221407084924</v>
+        <v>1.000167129839957</v>
       </c>
       <c r="H3">
-        <v>0.9980571086805321</v>
+        <v>1.000467481356214</v>
       </c>
       <c r="I3">
-        <v>1.000889604391946</v>
+        <v>0.9996303523675696</v>
       </c>
       <c r="J3">
-        <v>0.9963986931585326</v>
+        <v>1.000151172944123</v>
       </c>
       <c r="K3">
-        <v>1.001005401056132</v>
+        <v>1.000151172944123</v>
       </c>
       <c r="L3">
-        <v>1.000841952007887</v>
+        <v>1.00017369607509</v>
       </c>
       <c r="M3">
-        <v>0.9986203225832095</v>
+        <v>0.9997555429592915</v>
       </c>
       <c r="N3">
-        <v>0.9986203225832095</v>
+        <v>0.9997555429592915</v>
       </c>
       <c r="O3">
-        <v>0.9984325846156503</v>
+        <v>0.9997138127620508</v>
       </c>
       <c r="P3">
-        <v>0.9994153487408503</v>
+        <v>0.9998874196209021</v>
       </c>
       <c r="Q3">
-        <v>0.9994153487408503</v>
+        <v>0.9998874196209021</v>
       </c>
       <c r="R3">
-        <v>0.9998128618196706</v>
+        <v>0.9999533579517075</v>
       </c>
       <c r="S3">
-        <v>0.9998128618196706</v>
+        <v>0.9999533579517075</v>
       </c>
       <c r="T3">
-        <v>0.999901138357378</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+        <v>0.999987870404408</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.001945815069796</v>
+        <v>1.007243669749104</v>
       </c>
       <c r="D4">
-        <v>0.9930447032198529</v>
+        <v>0.9670238189360572</v>
       </c>
       <c r="E4">
-        <v>1.001623829449759</v>
+        <v>0.9670238189360572</v>
       </c>
       <c r="F4">
-        <v>1.001945815069796</v>
+        <v>1.008799811900656</v>
       </c>
       <c r="G4">
-        <v>1.004268877214932</v>
+        <v>1.008346124531522</v>
       </c>
       <c r="H4">
-        <v>0.9962491037741025</v>
+        <v>1.023762564124166</v>
       </c>
       <c r="I4">
-        <v>1.001717701230573</v>
+        <v>0.9815029651521375</v>
       </c>
       <c r="J4">
-        <v>0.9930447032198529</v>
+        <v>1.007243669749104</v>
       </c>
       <c r="K4">
-        <v>1.001945815069796</v>
+        <v>1.007243669749104</v>
       </c>
       <c r="L4">
-        <v>1.001623829449759</v>
+        <v>1.008799811900656</v>
       </c>
       <c r="M4">
-        <v>0.9973342663348057</v>
+        <v>0.9879118154183568</v>
       </c>
       <c r="N4">
-        <v>0.9973342663348057</v>
+        <v>0.9879118154183568</v>
       </c>
       <c r="O4">
-        <v>0.9969725454812379</v>
+        <v>0.9857755319962838</v>
       </c>
       <c r="P4">
-        <v>0.9988714492464693</v>
+        <v>0.9943557668619393</v>
       </c>
       <c r="Q4">
-        <v>0.9988714492464693</v>
+        <v>0.9943557668619393</v>
       </c>
       <c r="R4">
-        <v>0.9996400407023012</v>
+        <v>0.9975777425837304</v>
       </c>
       <c r="S4">
-        <v>0.9996400407023012</v>
+        <v>0.9975777425837304</v>
       </c>
       <c r="T4">
-        <v>0.9998083383265026</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>0.9994464923989406</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.003695542005769</v>
+        <v>1.008380025893372</v>
       </c>
       <c r="D5">
-        <v>0.9866915709412903</v>
+        <v>0.9629452366282427</v>
       </c>
       <c r="E5">
-        <v>1.003122421546222</v>
+        <v>0.9629452366282427</v>
       </c>
       <c r="F5">
-        <v>1.003695542005769</v>
+        <v>1.009754614337175</v>
       </c>
       <c r="G5">
-        <v>1.008217288396023</v>
+        <v>1.009353859582134</v>
       </c>
       <c r="H5">
-        <v>0.9928129990494377</v>
+        <v>1.026274132002884</v>
       </c>
       <c r="I5">
-        <v>1.00328951180182</v>
+        <v>0.9793017613112386</v>
       </c>
       <c r="J5">
-        <v>0.9866915709412903</v>
+        <v>1.008380025893372</v>
       </c>
       <c r="K5">
-        <v>1.003695542005769</v>
+        <v>1.008380025893372</v>
       </c>
       <c r="L5">
-        <v>1.003122421546222</v>
+        <v>1.009754614337175</v>
       </c>
       <c r="M5">
-        <v>0.994906996243756</v>
+        <v>0.9863499254827091</v>
       </c>
       <c r="N5">
-        <v>0.994906996243756</v>
+        <v>0.9863499254827091</v>
       </c>
       <c r="O5">
-        <v>0.9942089971789833</v>
+        <v>0.9840005374255522</v>
       </c>
       <c r="P5">
-        <v>0.9978365114977602</v>
+        <v>0.9936932922862632</v>
       </c>
       <c r="Q5">
-        <v>0.9978365114977602</v>
+        <v>0.9936932922862632</v>
       </c>
       <c r="R5">
-        <v>0.9993012691247624</v>
+        <v>0.9973649756880404</v>
       </c>
       <c r="S5">
-        <v>0.9993012691247624</v>
+        <v>0.9973649756880404</v>
       </c>
       <c r="T5">
-        <v>0.9996382222900936</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+        <v>0.9993349382925075</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.00540464121328</v>
+        <v>1.025453807412359</v>
       </c>
       <c r="D6">
-        <v>0.9804903278335</v>
+        <v>0.8796450444302782</v>
       </c>
       <c r="E6">
-        <v>1.004584504596205</v>
+        <v>0.8796450444302782</v>
       </c>
       <c r="F6">
-        <v>1.00540464121328</v>
+        <v>1.032663688839514</v>
       </c>
       <c r="G6">
-        <v>1.012069142504221</v>
+        <v>1.030561676734504</v>
       </c>
       <c r="H6">
-        <v>0.9894594801750541</v>
+        <v>1.08847647030067</v>
       </c>
       <c r="I6">
-        <v>1.004823610240445</v>
+        <v>0.9321362020860152</v>
       </c>
       <c r="J6">
-        <v>0.9804903278335</v>
+        <v>1.025453807412359</v>
       </c>
       <c r="K6">
-        <v>1.00540464121328</v>
+        <v>1.025453807412359</v>
       </c>
       <c r="L6">
-        <v>1.004584504596205</v>
+        <v>1.032663688839514</v>
       </c>
       <c r="M6">
-        <v>0.9925374162148526</v>
+        <v>0.9561543666348962</v>
       </c>
       <c r="N6">
-        <v>0.9925374162148526</v>
+        <v>0.9561543666348962</v>
       </c>
       <c r="O6">
-        <v>0.9915114375349198</v>
+        <v>0.9481483117852693</v>
       </c>
       <c r="P6">
-        <v>0.9968264912143286</v>
+        <v>0.9792541802273839</v>
       </c>
       <c r="Q6">
-        <v>0.9968264912143286</v>
+        <v>0.9792541802273839</v>
       </c>
       <c r="R6">
-        <v>0.9989710287140665</v>
+        <v>0.9908040870236277</v>
       </c>
       <c r="S6">
-        <v>0.9989710287140665</v>
+        <v>0.9908040870236277</v>
       </c>
       <c r="T6">
-        <v>0.9994719510937844</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>0.9981561483005567</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000054809097421</v>
+        <v>1.00118740294612</v>
       </c>
       <c r="D7">
-        <v>0.9997513153390861</v>
+        <v>0.9957929674139092</v>
       </c>
       <c r="E7">
-        <v>1.000066260844591</v>
+        <v>0.9957929674139092</v>
       </c>
       <c r="F7">
-        <v>1.000054809097421</v>
+        <v>1.00097640001903</v>
       </c>
       <c r="G7">
-        <v>1.000178877597452</v>
+        <v>1.001037916213708</v>
       </c>
       <c r="H7">
-        <v>0.999860573510276</v>
+        <v>1.002563540557851</v>
       </c>
       <c r="I7">
-        <v>1.00006292239349</v>
+        <v>0.997734964423983</v>
       </c>
       <c r="J7">
-        <v>0.9997513153390861</v>
+        <v>1.00118740294612</v>
       </c>
       <c r="K7">
-        <v>1.000054809097421</v>
+        <v>1.00118740294612</v>
       </c>
       <c r="L7">
-        <v>1.000066260844591</v>
+        <v>1.00097640001903</v>
       </c>
       <c r="M7">
-        <v>0.9999087880918387</v>
+        <v>0.9983846837164698</v>
       </c>
       <c r="N7">
-        <v>0.9999087880918387</v>
+        <v>0.9983846837164698</v>
       </c>
       <c r="O7">
-        <v>0.9998927165646512</v>
+        <v>0.9981681106189741</v>
       </c>
       <c r="P7">
-        <v>0.9999574617603662</v>
+        <v>0.9993189234596865</v>
       </c>
       <c r="Q7">
-        <v>0.9999574617603662</v>
+        <v>0.9993189234596865</v>
       </c>
       <c r="R7">
-        <v>0.99998179859463</v>
+        <v>0.9997860433312948</v>
       </c>
       <c r="S7">
-        <v>0.99998179859463</v>
+        <v>0.9997860433312948</v>
       </c>
       <c r="T7">
-        <v>0.9999957931303859</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>0.9998821985957669</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000151172944123</v>
+        <v>1.000123816162829</v>
       </c>
       <c r="D8">
-        <v>0.9993373898434937</v>
+        <v>0.9996629730186686</v>
       </c>
       <c r="E8">
-        <v>1.00017369607509</v>
+        <v>0.9996629730186686</v>
       </c>
       <c r="F8">
-        <v>1.000151172944123</v>
+        <v>1.000062279263076</v>
       </c>
       <c r="G8">
-        <v>1.000467481356214</v>
+        <v>1.000080219422852</v>
       </c>
       <c r="H8">
-        <v>0.9996303523675696</v>
+        <v>1.000154356865046</v>
       </c>
       <c r="I8">
-        <v>1.000167129839957</v>
+        <v>0.9998288763691064</v>
       </c>
       <c r="J8">
-        <v>0.9993373898434937</v>
+        <v>1.000123816162829</v>
       </c>
       <c r="K8">
-        <v>1.000151172944123</v>
+        <v>1.000123816162829</v>
       </c>
       <c r="L8">
-        <v>1.00017369607509</v>
+        <v>1.000062279263076</v>
       </c>
       <c r="M8">
-        <v>0.9997555429592917</v>
+        <v>0.9998626261408721</v>
       </c>
       <c r="N8">
-        <v>0.9997555429592917</v>
+        <v>0.9998626261408721</v>
       </c>
       <c r="O8">
-        <v>0.999713812762051</v>
+        <v>0.9998513762169502</v>
       </c>
       <c r="P8">
-        <v>0.9998874196209022</v>
+        <v>0.9999496894815244</v>
       </c>
       <c r="Q8">
-        <v>0.9998874196209021</v>
+        <v>0.9999496894815244</v>
       </c>
       <c r="R8">
-        <v>0.9999533579517074</v>
+        <v>0.9999932211518506</v>
       </c>
       <c r="S8">
-        <v>0.9999533579517074</v>
+        <v>0.9999932211518506</v>
       </c>
       <c r="T8">
-        <v>0.9999878704044077</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>0.9999854201835964</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000219288453249</v>
+        <v>1.001945815069796</v>
       </c>
       <c r="D9">
-        <v>0.9990800832963581</v>
+        <v>0.9930447032198529</v>
       </c>
       <c r="E9">
-        <v>1.00023591792791</v>
+        <v>0.9930447032198529</v>
       </c>
       <c r="F9">
-        <v>1.000219288453249</v>
+        <v>1.001623829449759</v>
       </c>
       <c r="G9">
-        <v>1.000632282669324</v>
+        <v>1.001717701230573</v>
       </c>
       <c r="H9">
-        <v>0.9994901975224567</v>
+        <v>1.004268877214932</v>
       </c>
       <c r="I9">
-        <v>1.000231070108208</v>
+        <v>0.9962491037741025</v>
       </c>
       <c r="J9">
-        <v>0.9990800832963581</v>
+        <v>1.001945815069796</v>
       </c>
       <c r="K9">
-        <v>1.000219288453249</v>
+        <v>1.001945815069796</v>
       </c>
       <c r="L9">
-        <v>1.00023591792791</v>
+        <v>1.001623829449759</v>
       </c>
       <c r="M9">
-        <v>0.9996580006121341</v>
+        <v>0.9973342663348057</v>
       </c>
       <c r="N9">
-        <v>0.9996580006121341</v>
+        <v>0.9973342663348057</v>
       </c>
       <c r="O9">
-        <v>0.9996020662489083</v>
+        <v>0.9969725454812379</v>
       </c>
       <c r="P9">
-        <v>0.9998450965591724</v>
+        <v>0.9988714492464693</v>
       </c>
       <c r="Q9">
-        <v>0.9998450965591724</v>
+        <v>0.9988714492464693</v>
       </c>
       <c r="R9">
-        <v>0.9999386445326917</v>
+        <v>0.9996400407023012</v>
       </c>
       <c r="S9">
-        <v>0.9999386445326917</v>
+        <v>0.9996400407023012</v>
       </c>
       <c r="T9">
-        <v>0.9999814733295843</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+        <v>0.9998083383265026</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000461405736789</v>
+        <v>1.025743103524455</v>
       </c>
       <c r="D10">
-        <v>0.9980145743559868</v>
+        <v>0.8779097628518997</v>
       </c>
       <c r="E10">
-        <v>1.000515773332683</v>
+        <v>0.8779097628518997</v>
       </c>
       <c r="F10">
-        <v>1.000461405736789</v>
+        <v>1.033177801240041</v>
       </c>
       <c r="G10">
-        <v>1.001385750990168</v>
+        <v>1.03101024488281</v>
       </c>
       <c r="H10">
-        <v>0.9988954348606539</v>
+        <v>1.089890258985517</v>
       </c>
       <c r="I10">
-        <v>1.000499922504469</v>
+        <v>0.931129767739992</v>
       </c>
       <c r="J10">
-        <v>0.9980145743559868</v>
+        <v>1.025743103524455</v>
       </c>
       <c r="K10">
-        <v>1.000461405736789</v>
+        <v>1.025743103524455</v>
       </c>
       <c r="L10">
-        <v>1.000515773332683</v>
+        <v>1.033177801240041</v>
       </c>
       <c r="M10">
-        <v>0.999265173844335</v>
+        <v>0.9555437820459706</v>
       </c>
       <c r="N10">
-        <v>0.999265173844335</v>
+        <v>0.9555437820459706</v>
       </c>
       <c r="O10">
-        <v>0.9991419275164413</v>
+        <v>0.9474057772773111</v>
       </c>
       <c r="P10">
-        <v>0.9996639178084864</v>
+        <v>0.9789435558721321</v>
       </c>
       <c r="Q10">
-        <v>0.9996639178084864</v>
+        <v>0.9789435558721321</v>
       </c>
       <c r="R10">
-        <v>0.9998632897905619</v>
+        <v>0.9906434427852129</v>
       </c>
       <c r="S10">
-        <v>0.9998632897905619</v>
+        <v>0.9906434427852129</v>
       </c>
       <c r="T10">
-        <v>0.999962143630125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+        <v>0.9981434898707858</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000794004004159</v>
+        <v>1.008202021794526</v>
       </c>
       <c r="D11">
-        <v>0.9966972616613798</v>
+        <v>0.9645442583849078</v>
       </c>
       <c r="E11">
-        <v>1.000843285122039</v>
+        <v>0.9645442583849078</v>
       </c>
       <c r="F11">
-        <v>1.000794004004159</v>
+        <v>1.009231665545315</v>
       </c>
       <c r="G11">
-        <v>1.002258147221963</v>
+        <v>1.008931476292533</v>
       </c>
       <c r="H11">
-        <v>0.9981720923069638</v>
+        <v>1.024813886943567</v>
       </c>
       <c r="I11">
-        <v>1.000828915914508</v>
+        <v>0.9802610549021619</v>
       </c>
       <c r="J11">
-        <v>0.9966972616613798</v>
+        <v>1.008202021794526</v>
       </c>
       <c r="K11">
-        <v>1.000794004004159</v>
+        <v>1.008202021794526</v>
       </c>
       <c r="L11">
-        <v>1.000843285122039</v>
+        <v>1.009231665545315</v>
       </c>
       <c r="M11">
-        <v>0.9987702733917095</v>
+        <v>0.9868879619651114</v>
       </c>
       <c r="N11">
-        <v>0.9987702733917095</v>
+        <v>0.9868879619651114</v>
       </c>
       <c r="O11">
-        <v>0.9985708796967944</v>
+        <v>0.9846789929441283</v>
       </c>
       <c r="P11">
-        <v>0.9994448502625261</v>
+        <v>0.9939926485749163</v>
       </c>
       <c r="Q11">
-        <v>0.9994448502625261</v>
+        <v>0.9939926485749163</v>
       </c>
       <c r="R11">
-        <v>0.9997821386979342</v>
+        <v>0.9975449918798187</v>
       </c>
       <c r="S11">
-        <v>0.9997821386979342</v>
+        <v>0.9975449918798187</v>
       </c>
       <c r="T11">
-        <v>0.9999322843718356</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+        <v>0.9993307273105018</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9922487180159747</v>
+        <v>1.007970169347369</v>
       </c>
       <c r="D12">
-        <v>1.035590697634032</v>
+        <v>0.9624418490842109</v>
       </c>
       <c r="E12">
-        <v>0.9904654422090636</v>
+        <v>0.9624418490842109</v>
       </c>
       <c r="F12">
-        <v>0.9922487180159747</v>
+        <v>1.010178074673687</v>
       </c>
       <c r="G12">
-        <v>0.9742348483760883</v>
+        <v>1.009534370378948</v>
       </c>
       <c r="H12">
-        <v>1.019987587429532</v>
+        <v>1.027562087978948</v>
       </c>
       <c r="I12">
-        <v>0.9909853482461128</v>
+        <v>0.9788320444736845</v>
       </c>
       <c r="J12">
-        <v>1.035590697634032</v>
+        <v>1.007970169347369</v>
       </c>
       <c r="K12">
-        <v>0.9922487180159747</v>
+        <v>1.007970169347369</v>
       </c>
       <c r="L12">
-        <v>0.9904654422090636</v>
+        <v>1.010178074673687</v>
       </c>
       <c r="M12">
-        <v>1.013028069921548</v>
+        <v>0.9863099618789488</v>
       </c>
       <c r="N12">
-        <v>1.013028069921548</v>
+        <v>0.9863099618789488</v>
       </c>
       <c r="O12">
-        <v>1.015347909090876</v>
+        <v>0.9838173227438607</v>
       </c>
       <c r="P12">
-        <v>1.006101619286357</v>
+        <v>0.9935300310350886</v>
       </c>
       <c r="Q12">
-        <v>1.006101619286357</v>
+        <v>0.9935300310350886</v>
       </c>
       <c r="R12">
-        <v>1.002638393968761</v>
+        <v>0.9971400656131586</v>
       </c>
       <c r="S12">
-        <v>1.002638393968761</v>
+        <v>0.9971400656131586</v>
       </c>
       <c r="T12">
-        <v>1.000585440318467</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>0.9994197659894746</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.997057222499049</v>
+        <v>0.9939603927591961</v>
       </c>
       <c r="D13">
-        <v>1.009784018769365</v>
+        <v>1.024612952076128</v>
       </c>
       <c r="E13">
-        <v>0.9978299784127406</v>
+        <v>1.024612952076128</v>
       </c>
       <c r="F13">
-        <v>0.997057222499049</v>
+        <v>0.9937836358206015</v>
       </c>
       <c r="G13">
-        <v>0.9943604702010407</v>
+        <v>0.9938351671234902</v>
       </c>
       <c r="H13">
-        <v>1.00520236982331</v>
+        <v>0.983389360918871</v>
       </c>
       <c r="I13">
-        <v>0.997604682345176</v>
+        <v>1.013578029728871</v>
       </c>
       <c r="J13">
-        <v>1.009784018769365</v>
+        <v>0.9939603927591961</v>
       </c>
       <c r="K13">
-        <v>0.997057222499049</v>
+        <v>0.9939603927591961</v>
       </c>
       <c r="L13">
-        <v>0.9978299784127406</v>
+        <v>0.9937836358206015</v>
       </c>
       <c r="M13">
-        <v>1.003806998591053</v>
+        <v>1.009198293948365</v>
       </c>
       <c r="N13">
-        <v>1.003806998591053</v>
+        <v>1.009198293948365</v>
       </c>
       <c r="O13">
-        <v>1.004272122335139</v>
+        <v>1.0106582058752</v>
       </c>
       <c r="P13">
-        <v>1.001557073227051</v>
+        <v>1.004118993551975</v>
       </c>
       <c r="Q13">
-        <v>1.001557073227051</v>
+        <v>1.004118993551975</v>
       </c>
       <c r="R13">
-        <v>1.000432110545051</v>
+        <v>1.001579343353781</v>
       </c>
       <c r="S13">
-        <v>1.000432110545051</v>
+        <v>1.001579343353781</v>
       </c>
       <c r="T13">
-        <v>1.000306457008447</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+        <v>1.00052658973786</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.977705090425344</v>
+        <v>1.044254600000001</v>
       </c>
       <c r="D14">
-        <v>1.088593805931357</v>
+        <v>0.7892001700000005</v>
       </c>
       <c r="E14">
-        <v>0.977932915327713</v>
+        <v>0.7892001700000005</v>
       </c>
       <c r="F14">
-        <v>0.977705090425344</v>
+        <v>1.0573918</v>
       </c>
       <c r="G14">
-        <v>0.9411978475825253</v>
+        <v>1.053561700000001</v>
       </c>
       <c r="H14">
-        <v>1.048673862633481</v>
+        <v>1.155547100000001</v>
       </c>
       <c r="I14">
-        <v>0.9778664977828289</v>
+        <v>0.8810197700000013</v>
       </c>
       <c r="J14">
-        <v>1.088593805931357</v>
+        <v>1.044254600000001</v>
       </c>
       <c r="K14">
-        <v>0.977705090425344</v>
+        <v>1.044254600000001</v>
       </c>
       <c r="L14">
-        <v>0.977932915327713</v>
+        <v>1.0573918</v>
       </c>
       <c r="M14">
-        <v>1.033263360629535</v>
+        <v>0.9232959850000004</v>
       </c>
       <c r="N14">
-        <v>1.033263360629535</v>
+        <v>0.9232959850000004</v>
       </c>
       <c r="O14">
-        <v>1.03840019463085</v>
+        <v>0.9092039133333341</v>
       </c>
       <c r="P14">
-        <v>1.014743937228138</v>
+        <v>0.9636155233333339</v>
       </c>
       <c r="Q14">
-        <v>1.014743937228138</v>
+        <v>0.9636155233333339</v>
       </c>
       <c r="R14">
-        <v>1.005484225527439</v>
+        <v>0.9837752925000007</v>
       </c>
       <c r="S14">
-        <v>1.005484225527439</v>
+        <v>0.9837752925000007</v>
       </c>
       <c r="T14">
-        <v>1.001995003280541</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+        <v>0.9968291900000009</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9941625928970294</v>
+        <v>1.0396018</v>
       </c>
       <c r="D15">
-        <v>1.023438890463707</v>
+        <v>0.88779747</v>
       </c>
       <c r="E15">
-        <v>0.9941278789637381</v>
+        <v>0.88779747</v>
       </c>
       <c r="F15">
-        <v>0.9941625928970294</v>
+        <v>1.0216333</v>
       </c>
       <c r="G15">
-        <v>0.9843344142237102</v>
+        <v>1.0268719</v>
       </c>
       <c r="H15">
-        <v>1.012899424255258</v>
+        <v>1.0542662</v>
       </c>
       <c r="I15">
-        <v>0.9941379966925323</v>
+        <v>0.94244704</v>
       </c>
       <c r="J15">
-        <v>1.023438890463707</v>
+        <v>1.0396018</v>
       </c>
       <c r="K15">
-        <v>0.9941625928970294</v>
+        <v>1.0396018</v>
       </c>
       <c r="L15">
-        <v>0.9941278789637381</v>
+        <v>1.0216333</v>
       </c>
       <c r="M15">
-        <v>1.008783384713723</v>
+        <v>0.954715385</v>
       </c>
       <c r="N15">
-        <v>1.008783384713723</v>
+        <v>0.954715385</v>
       </c>
       <c r="O15">
-        <v>1.010155397894234</v>
+        <v>0.9506259366666666</v>
       </c>
       <c r="P15">
-        <v>1.003909787441492</v>
+        <v>0.9830108566666667</v>
       </c>
       <c r="Q15">
-        <v>1.003909787441492</v>
+        <v>0.9830108566666667</v>
       </c>
       <c r="R15">
-        <v>1.001472988805376</v>
+        <v>0.9971585924999999</v>
       </c>
       <c r="S15">
-        <v>1.001472988805376</v>
+        <v>0.9971585924999999</v>
       </c>
       <c r="T15">
-        <v>1.000516866249329</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+        <v>0.9954362849999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9999600749751917</v>
+        <v>1.0496294</v>
       </c>
       <c r="D16">
-        <v>1.000012254198301</v>
+        <v>0.76005964</v>
       </c>
       <c r="E16">
-        <v>1.000017414677792</v>
+        <v>0.76005964</v>
       </c>
       <c r="F16">
-        <v>0.9999600749751917</v>
+        <v>1.0657383</v>
       </c>
       <c r="G16">
-        <v>1.000057361817249</v>
+        <v>1.0610418</v>
       </c>
       <c r="H16">
-        <v>0.9999934701166742</v>
+        <v>1.1783704</v>
       </c>
       <c r="I16">
-        <v>1.000000697578546</v>
+        <v>0.86430474</v>
       </c>
       <c r="J16">
-        <v>1.000012254198301</v>
+        <v>1.0496294</v>
       </c>
       <c r="K16">
-        <v>0.9999600749751917</v>
+        <v>1.0496294</v>
       </c>
       <c r="L16">
-        <v>1.000017414677792</v>
+        <v>1.0657383</v>
       </c>
       <c r="M16">
-        <v>1.000014834438047</v>
+        <v>0.9128989700000001</v>
       </c>
       <c r="N16">
-        <v>1.000014834438047</v>
+        <v>0.9128989700000001</v>
       </c>
       <c r="O16">
-        <v>1.000007712997589</v>
+        <v>0.8967008933333335</v>
       </c>
       <c r="P16">
-        <v>0.9999965812837618</v>
+        <v>0.95847578</v>
       </c>
       <c r="Q16">
-        <v>0.9999965812837616</v>
+        <v>0.95847578</v>
       </c>
       <c r="R16">
-        <v>0.9999874547066191</v>
+        <v>0.9812641849999999</v>
       </c>
       <c r="S16">
-        <v>0.9999874547066191</v>
+        <v>0.9812641849999999</v>
       </c>
       <c r="T16">
-        <v>1.000006878893959</v>
+        <v>0.9965240466666666</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000123816162829</v>
+        <v>0.98806803</v>
       </c>
       <c r="D17">
-        <v>0.9996629730186686</v>
+        <v>1.0497203</v>
       </c>
       <c r="E17">
-        <v>1.000062279263076</v>
+        <v>1.0497203</v>
       </c>
       <c r="F17">
-        <v>1.000123816162829</v>
+        <v>0.98729322</v>
       </c>
       <c r="G17">
-        <v>1.000154356865046</v>
+        <v>0.98751911</v>
       </c>
       <c r="H17">
-        <v>0.9998288763691064</v>
+        <v>0.96596766</v>
       </c>
       <c r="I17">
-        <v>1.000080219422852</v>
+        <v>1.0275255</v>
       </c>
       <c r="J17">
-        <v>0.9996629730186686</v>
+        <v>0.98806803</v>
       </c>
       <c r="K17">
-        <v>1.000123816162829</v>
+        <v>0.98806803</v>
       </c>
       <c r="L17">
-        <v>1.000062279263076</v>
+        <v>0.98729322</v>
       </c>
       <c r="M17">
-        <v>0.9998626261408721</v>
+        <v>1.01850676</v>
       </c>
       <c r="N17">
-        <v>0.9998626261408721</v>
+        <v>1.01850676</v>
       </c>
       <c r="O17">
-        <v>0.9998513762169502</v>
+        <v>1.021513006666667</v>
       </c>
       <c r="P17">
-        <v>0.9999496894815244</v>
+        <v>1.008360516666667</v>
       </c>
       <c r="Q17">
-        <v>0.9999496894815244</v>
+        <v>1.008360516666666</v>
       </c>
       <c r="R17">
-        <v>0.9999932211518506</v>
+        <v>1.003287395</v>
       </c>
       <c r="S17">
-        <v>0.9999932211518506</v>
+        <v>1.003287395</v>
       </c>
       <c r="T17">
-        <v>0.9999854201835964</v>
+        <v>1.001015636666666</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000199672431653</v>
+        <v>1.023678468493151</v>
       </c>
       <c r="D18">
-        <v>0.9989588120580243</v>
+        <v>0.9163310932876712</v>
       </c>
       <c r="E18">
-        <v>1.000293978664526</v>
+        <v>0.9163310932876712</v>
       </c>
       <c r="F18">
-        <v>1.000199672431653</v>
+        <v>1.019383204657534</v>
       </c>
       <c r="G18">
-        <v>1.000801906042377</v>
+        <v>1.020635459452055</v>
       </c>
       <c r="H18">
-        <v>0.9994055202432048</v>
+        <v>1.050870365479452</v>
       </c>
       <c r="I18">
-        <v>1.000266484369937</v>
+        <v>0.9549761539726026</v>
       </c>
       <c r="J18">
-        <v>0.9989588120580243</v>
+        <v>1.023678468493151</v>
       </c>
       <c r="K18">
-        <v>1.000199672431653</v>
+        <v>1.023678468493151</v>
       </c>
       <c r="L18">
-        <v>1.000293978664526</v>
+        <v>1.019383204657534</v>
       </c>
       <c r="M18">
-        <v>0.999626395361275</v>
+        <v>0.9678571489726027</v>
       </c>
       <c r="N18">
-        <v>0.999626395361275</v>
+        <v>0.9678571489726027</v>
       </c>
       <c r="O18">
-        <v>0.9995527703219182</v>
+        <v>0.9635634839726026</v>
       </c>
       <c r="P18">
-        <v>0.9998174877180676</v>
+        <v>0.9864642554794522</v>
       </c>
       <c r="Q18">
-        <v>0.9998174877180676</v>
+        <v>0.9864642554794522</v>
       </c>
       <c r="R18">
-        <v>0.9999130338964639</v>
+        <v>0.995767808732877</v>
       </c>
       <c r="S18">
-        <v>0.9999130338964639</v>
+        <v>0.995767808732877</v>
       </c>
       <c r="T18">
-        <v>0.999987728968287</v>
+        <v>0.9976457908904109</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.00034198779231</v>
+        <v>1.007648322631579</v>
       </c>
       <c r="D19">
-        <v>0.9976382078369553</v>
+        <v>0.9537486157894736</v>
       </c>
       <c r="E19">
-        <v>1.000728485021599</v>
+        <v>0.9537486157894736</v>
       </c>
       <c r="F19">
-        <v>1.00034198779231</v>
+        <v>1.013737583684211</v>
       </c>
       <c r="G19">
-        <v>1.002016238989799</v>
+        <v>1.01196228631579</v>
       </c>
       <c r="H19">
-        <v>0.9986115657253768</v>
+        <v>1.037793427368421</v>
       </c>
       <c r="I19">
-        <v>1.000615799213963</v>
+        <v>0.9731525063157895</v>
       </c>
       <c r="J19">
-        <v>0.9976382078369553</v>
+        <v>1.007648322631579</v>
       </c>
       <c r="K19">
-        <v>1.00034198779231</v>
+        <v>1.007648322631579</v>
       </c>
       <c r="L19">
-        <v>1.000728485021599</v>
+        <v>1.013737583684211</v>
       </c>
       <c r="M19">
-        <v>0.9991833464292772</v>
+        <v>0.9837430997368422</v>
       </c>
       <c r="N19">
-        <v>0.9991833464292772</v>
+        <v>0.9837430997368422</v>
       </c>
       <c r="O19">
-        <v>0.9989927528613104</v>
+        <v>0.9802129019298246</v>
       </c>
       <c r="P19">
-        <v>0.9995695602169548</v>
+        <v>0.9917115073684211</v>
       </c>
       <c r="Q19">
-        <v>0.9995695602169546</v>
+        <v>0.9917115073684211</v>
       </c>
       <c r="R19">
-        <v>0.9997626671107933</v>
+        <v>0.9956957111842105</v>
       </c>
       <c r="S19">
-        <v>0.9997626671107933</v>
+        <v>0.9956957111842105</v>
       </c>
       <c r="T19">
-        <v>0.9999920474300005</v>
+        <v>0.9996737903508772</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.027809410526316</v>
+      </c>
+      <c r="D20">
+        <v>0.9013526257894738</v>
+      </c>
+      <c r="E20">
+        <v>0.9013526257894738</v>
+      </c>
+      <c r="F20">
+        <v>1.022913189473684</v>
+      </c>
+      <c r="G20">
+        <v>1.024340652631579</v>
+      </c>
+      <c r="H20">
+        <v>1.060169231578947</v>
+      </c>
+      <c r="I20">
+        <v>0.9468770710526315</v>
+      </c>
+      <c r="J20">
+        <v>1.027809410526316</v>
+      </c>
+      <c r="K20">
+        <v>1.027809410526316</v>
+      </c>
+      <c r="L20">
+        <v>1.022913189473684</v>
+      </c>
+      <c r="M20">
+        <v>0.962132907631579</v>
+      </c>
+      <c r="N20">
+        <v>0.962132907631579</v>
+      </c>
+      <c r="O20">
+        <v>0.9570476287719298</v>
+      </c>
+      <c r="P20">
+        <v>0.984025075263158</v>
+      </c>
+      <c r="Q20">
+        <v>0.984025075263158</v>
+      </c>
+      <c r="R20">
+        <v>0.9949711590789474</v>
+      </c>
+      <c r="S20">
+        <v>0.9949711590789474</v>
+      </c>
+      <c r="T20">
+        <v>0.9972436968421053</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.977705090425344</v>
+      </c>
+      <c r="D21">
+        <v>1.088593805931357</v>
+      </c>
+      <c r="E21">
+        <v>1.088593805931357</v>
+      </c>
+      <c r="F21">
+        <v>0.9779329153277131</v>
+      </c>
+      <c r="G21">
+        <v>0.9778664977828289</v>
+      </c>
+      <c r="H21">
+        <v>0.9411978475825253</v>
+      </c>
+      <c r="I21">
+        <v>1.048673862633481</v>
+      </c>
+      <c r="J21">
+        <v>0.977705090425344</v>
+      </c>
+      <c r="K21">
+        <v>0.977705090425344</v>
+      </c>
+      <c r="L21">
+        <v>0.9779329153277131</v>
+      </c>
+      <c r="M21">
+        <v>1.033263360629535</v>
+      </c>
+      <c r="N21">
+        <v>1.033263360629535</v>
+      </c>
+      <c r="O21">
+        <v>1.038400194630851</v>
+      </c>
+      <c r="P21">
+        <v>1.014743937228138</v>
+      </c>
+      <c r="Q21">
+        <v>1.014743937228138</v>
+      </c>
+      <c r="R21">
+        <v>1.00548422552744</v>
+      </c>
+      <c r="S21">
+        <v>1.00548422552744</v>
+      </c>
+      <c r="T21">
+        <v>1.001995003280542</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9941625928970294</v>
+      </c>
+      <c r="D22">
+        <v>1.023438890463707</v>
+      </c>
+      <c r="E22">
+        <v>1.023438890463707</v>
+      </c>
+      <c r="F22">
+        <v>0.9941278789637381</v>
+      </c>
+      <c r="G22">
+        <v>0.9941379966925324</v>
+      </c>
+      <c r="H22">
+        <v>0.9843344142237102</v>
+      </c>
+      <c r="I22">
+        <v>1.012899424255258</v>
+      </c>
+      <c r="J22">
+        <v>0.9941625928970294</v>
+      </c>
+      <c r="K22">
+        <v>0.9941625928970294</v>
+      </c>
+      <c r="L22">
+        <v>0.9941278789637381</v>
+      </c>
+      <c r="M22">
+        <v>1.008783384713723</v>
+      </c>
+      <c r="N22">
+        <v>1.008783384713723</v>
+      </c>
+      <c r="O22">
+        <v>1.010155397894234</v>
+      </c>
+      <c r="P22">
+        <v>1.003909787441492</v>
+      </c>
+      <c r="Q22">
+        <v>1.003909787441492</v>
+      </c>
+      <c r="R22">
+        <v>1.001472988805376</v>
+      </c>
+      <c r="S22">
+        <v>1.001472988805376</v>
+      </c>
+      <c r="T22">
+        <v>1.000516866249329</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9922487180159747</v>
+      </c>
+      <c r="D23">
+        <v>1.035590697634032</v>
+      </c>
+      <c r="E23">
+        <v>1.035590697634032</v>
+      </c>
+      <c r="F23">
+        <v>0.9904654422090639</v>
+      </c>
+      <c r="G23">
+        <v>0.9909853482461128</v>
+      </c>
+      <c r="H23">
+        <v>0.9742348483760883</v>
+      </c>
+      <c r="I23">
+        <v>1.019987587429532</v>
+      </c>
+      <c r="J23">
+        <v>0.9922487180159747</v>
+      </c>
+      <c r="K23">
+        <v>0.9922487180159747</v>
+      </c>
+      <c r="L23">
+        <v>0.9904654422090639</v>
+      </c>
+      <c r="M23">
+        <v>1.013028069921548</v>
+      </c>
+      <c r="N23">
+        <v>1.013028069921548</v>
+      </c>
+      <c r="O23">
+        <v>1.015347909090876</v>
+      </c>
+      <c r="P23">
+        <v>1.006101619286357</v>
+      </c>
+      <c r="Q23">
+        <v>1.006101619286357</v>
+      </c>
+      <c r="R23">
+        <v>1.002638393968761</v>
+      </c>
+      <c r="S23">
+        <v>1.002638393968761</v>
+      </c>
+      <c r="T23">
+        <v>1.000585440318467</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9970572224990493</v>
+      </c>
+      <c r="D24">
+        <v>1.009784018769365</v>
+      </c>
+      <c r="E24">
+        <v>1.009784018769365</v>
+      </c>
+      <c r="F24">
+        <v>0.9978299784127406</v>
+      </c>
+      <c r="G24">
+        <v>0.997604682345176</v>
+      </c>
+      <c r="H24">
+        <v>0.9943604702010407</v>
+      </c>
+      <c r="I24">
+        <v>1.00520236982331</v>
+      </c>
+      <c r="J24">
+        <v>0.9970572224990493</v>
+      </c>
+      <c r="K24">
+        <v>0.9970572224990493</v>
+      </c>
+      <c r="L24">
+        <v>0.9978299784127406</v>
+      </c>
+      <c r="M24">
+        <v>1.003806998591053</v>
+      </c>
+      <c r="N24">
+        <v>1.003806998591053</v>
+      </c>
+      <c r="O24">
+        <v>1.004272122335139</v>
+      </c>
+      <c r="P24">
+        <v>1.001557073227052</v>
+      </c>
+      <c r="Q24">
+        <v>1.001557073227051</v>
+      </c>
+      <c r="R24">
+        <v>1.000432110545051</v>
+      </c>
+      <c r="S24">
+        <v>1.000432110545051</v>
+      </c>
+      <c r="T24">
+        <v>1.000306457008447</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.018576941002638</v>
+      </c>
+      <c r="D25">
+        <v>0.9482764881461733</v>
+      </c>
+      <c r="E25">
+        <v>0.9482764881461733</v>
+      </c>
+      <c r="F25">
+        <v>1.009794181159248</v>
+      </c>
+      <c r="G25">
+        <v>1.012354751677912</v>
+      </c>
+      <c r="H25">
+        <v>1.024444896511594</v>
+      </c>
+      <c r="I25">
+        <v>0.9735846498785875</v>
+      </c>
+      <c r="J25">
+        <v>1.018576941002638</v>
+      </c>
+      <c r="K25">
+        <v>1.018576941002638</v>
+      </c>
+      <c r="L25">
+        <v>1.009794181159248</v>
+      </c>
+      <c r="M25">
+        <v>0.9790353346527108</v>
+      </c>
+      <c r="N25">
+        <v>0.9790353346527108</v>
+      </c>
+      <c r="O25">
+        <v>0.977218439728003</v>
+      </c>
+      <c r="P25">
+        <v>0.9922158701026866</v>
+      </c>
+      <c r="Q25">
+        <v>0.9922158701026866</v>
+      </c>
+      <c r="R25">
+        <v>0.9988061378276745</v>
+      </c>
+      <c r="S25">
+        <v>0.9988061378276745</v>
+      </c>
+      <c r="T25">
+        <v>0.9978386513960255</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.000450406426228</v>
+      </c>
+      <c r="D26">
+        <v>0.9887737853973807</v>
+      </c>
+      <c r="E26">
+        <v>0.9887737853973807</v>
+      </c>
+      <c r="F26">
+        <v>1.004115523190984</v>
+      </c>
+      <c r="G26">
+        <v>1.003046973733394</v>
+      </c>
+      <c r="H26">
+        <v>1.011672852248793</v>
+      </c>
+      <c r="I26">
+        <v>0.9929773704568738</v>
+      </c>
+      <c r="J26">
+        <v>1.000450406426228</v>
+      </c>
+      <c r="K26">
+        <v>1.000450406426228</v>
+      </c>
+      <c r="L26">
+        <v>1.004115523190984</v>
+      </c>
+      <c r="M26">
+        <v>0.9964446542941823</v>
+      </c>
+      <c r="N26">
+        <v>0.9964446542941823</v>
+      </c>
+      <c r="O26">
+        <v>0.9952888930150795</v>
+      </c>
+      <c r="P26">
+        <v>0.997779905004864</v>
+      </c>
+      <c r="Q26">
+        <v>0.997779905004864</v>
+      </c>
+      <c r="R26">
+        <v>0.9984475303602049</v>
+      </c>
+      <c r="S26">
+        <v>0.9984475303602049</v>
+      </c>
+      <c r="T26">
+        <v>1.000172818575609</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.003459894380704</v>
+      </c>
+      <c r="D27">
+        <v>0.9869302624841106</v>
+      </c>
+      <c r="E27">
+        <v>0.9869302624841106</v>
+      </c>
+      <c r="F27">
+        <v>1.00316050566878</v>
+      </c>
+      <c r="G27">
+        <v>1.003247799062585</v>
+      </c>
+      <c r="H27">
+        <v>1.008371002083494</v>
+      </c>
+      <c r="I27">
+        <v>0.9928809338895573</v>
+      </c>
+      <c r="J27">
+        <v>1.003459894380704</v>
+      </c>
+      <c r="K27">
+        <v>1.003459894380704</v>
+      </c>
+      <c r="L27">
+        <v>1.00316050566878</v>
+      </c>
+      <c r="M27">
+        <v>0.995045384076445</v>
+      </c>
+      <c r="N27">
+        <v>0.995045384076445</v>
+      </c>
+      <c r="O27">
+        <v>0.9943239006808158</v>
+      </c>
+      <c r="P27">
+        <v>0.9978502208445313</v>
+      </c>
+      <c r="Q27">
+        <v>0.9978502208445313</v>
+      </c>
+      <c r="R27">
+        <v>0.9992526392285745</v>
+      </c>
+      <c r="S27">
+        <v>0.9992526392285745</v>
+      </c>
+      <c r="T27">
+        <v>0.9996750662615383</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.00204669195854</v>
+      </c>
+      <c r="D28">
+        <v>0.994003197413272</v>
+      </c>
+      <c r="E28">
+        <v>0.994003197413272</v>
+      </c>
+      <c r="F28">
+        <v>1.001195042774943</v>
+      </c>
+      <c r="G28">
+        <v>1.001443332311697</v>
+      </c>
+      <c r="H28">
+        <v>1.003024552792076</v>
+      </c>
+      <c r="I28">
+        <v>0.9968988527662959</v>
+      </c>
+      <c r="J28">
+        <v>1.00204669195854</v>
+      </c>
+      <c r="K28">
+        <v>1.00204669195854</v>
+      </c>
+      <c r="L28">
+        <v>1.001195042774943</v>
+      </c>
+      <c r="M28">
+        <v>0.9975991200941072</v>
+      </c>
+      <c r="N28">
+        <v>0.9975991200941072</v>
+      </c>
+      <c r="O28">
+        <v>0.9973656976515034</v>
+      </c>
+      <c r="P28">
+        <v>0.9990816440489182</v>
+      </c>
+      <c r="Q28">
+        <v>0.9990816440489182</v>
+      </c>
+      <c r="R28">
+        <v>0.9998229060263237</v>
+      </c>
+      <c r="S28">
+        <v>0.9998229060263237</v>
+      </c>
+      <c r="T28">
+        <v>0.9997686116694706</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9930042064436008</v>
+      </c>
+      <c r="D29">
+        <v>1.033555532954049</v>
+      </c>
+      <c r="E29">
+        <v>1.033555532954049</v>
+      </c>
+      <c r="F29">
+        <v>0.9908371929869846</v>
+      </c>
+      <c r="G29">
+        <v>0.9914689679765797</v>
+      </c>
+      <c r="H29">
+        <v>0.9751530659286064</v>
+      </c>
+      <c r="I29">
+        <v>1.018957045398194</v>
+      </c>
+      <c r="J29">
+        <v>0.9930042064436008</v>
+      </c>
+      <c r="K29">
+        <v>0.9930042064436008</v>
+      </c>
+      <c r="L29">
+        <v>0.9908371929869846</v>
+      </c>
+      <c r="M29">
+        <v>1.012196362970517</v>
+      </c>
+      <c r="N29">
+        <v>1.012196362970517</v>
+      </c>
+      <c r="O29">
+        <v>1.014449923779742</v>
+      </c>
+      <c r="P29">
+        <v>1.005798977461545</v>
+      </c>
+      <c r="Q29">
+        <v>1.005798977461545</v>
+      </c>
+      <c r="R29">
+        <v>1.002600284707059</v>
+      </c>
+      <c r="S29">
+        <v>1.002600284707059</v>
+      </c>
+      <c r="T29">
+        <v>1.000496001948002</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Alpha4F-HW35.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha4F-HW35.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.007243669749104</v>
+        <v>1.006692958476543</v>
       </c>
       <c r="D4">
-        <v>0.9670238189360572</v>
+        <v>0.9697296392216729</v>
       </c>
       <c r="E4">
-        <v>0.9670238189360572</v>
+        <v>0.9697296392216729</v>
       </c>
       <c r="F4">
-        <v>1.008799811900656</v>
+        <v>1.008053495743492</v>
       </c>
       <c r="G4">
-        <v>1.008346124531522</v>
+        <v>1.007656838150552</v>
       </c>
       <c r="H4">
-        <v>1.023762564124166</v>
+        <v>1.021735140771282</v>
       </c>
       <c r="I4">
-        <v>0.9815029651521375</v>
+        <v>0.983036434458963</v>
       </c>
       <c r="J4">
-        <v>1.007243669749104</v>
+        <v>1.006692958476543</v>
       </c>
       <c r="K4">
-        <v>1.007243669749104</v>
+        <v>1.006692958476543</v>
       </c>
       <c r="L4">
-        <v>1.008799811900656</v>
+        <v>1.008053495743492</v>
       </c>
       <c r="M4">
-        <v>0.9879118154183568</v>
+        <v>0.9888915674825822</v>
       </c>
       <c r="N4">
-        <v>0.9879118154183568</v>
+        <v>0.9888915674825822</v>
       </c>
       <c r="O4">
-        <v>0.9857755319962838</v>
+        <v>0.9869398564747091</v>
       </c>
       <c r="P4">
-        <v>0.9943557668619393</v>
+        <v>0.9948253644805692</v>
       </c>
       <c r="Q4">
-        <v>0.9943557668619393</v>
+        <v>0.9948253644805692</v>
       </c>
       <c r="R4">
-        <v>0.9975777425837304</v>
+        <v>0.9977922629795626</v>
       </c>
       <c r="S4">
-        <v>0.9975777425837304</v>
+        <v>0.9977922629795626</v>
       </c>
       <c r="T4">
-        <v>0.9994464923989406</v>
+        <v>0.9994840844704175</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.008380025893372</v>
+        <v>1.026177103460173</v>
       </c>
       <c r="D5">
-        <v>0.9629452366282427</v>
+        <v>0.910646994955056</v>
       </c>
       <c r="E5">
-        <v>0.9629452366282427</v>
+        <v>0.910646994955056</v>
       </c>
       <c r="F5">
-        <v>1.009754614337175</v>
+        <v>1.020205550963637</v>
       </c>
       <c r="G5">
-        <v>1.009353859582134</v>
+        <v>1.021946523486317</v>
       </c>
       <c r="H5">
-        <v>1.026274132002884</v>
+        <v>1.052744040234713</v>
       </c>
       <c r="I5">
-        <v>0.9793017613112386</v>
+        <v>0.9522378362052168</v>
       </c>
       <c r="J5">
-        <v>1.008380025893372</v>
+        <v>1.026177103460173</v>
       </c>
       <c r="K5">
-        <v>1.008380025893372</v>
+        <v>1.026177103460173</v>
       </c>
       <c r="L5">
-        <v>1.009754614337175</v>
+        <v>1.020205550963637</v>
       </c>
       <c r="M5">
-        <v>0.9863499254827091</v>
+        <v>0.9654262729593462</v>
       </c>
       <c r="N5">
-        <v>0.9863499254827091</v>
+        <v>0.9654262729593462</v>
       </c>
       <c r="O5">
-        <v>0.9840005374255522</v>
+        <v>0.9610301273746366</v>
       </c>
       <c r="P5">
-        <v>0.9936932922862632</v>
+        <v>0.9856765497929553</v>
       </c>
       <c r="Q5">
-        <v>0.9936932922862632</v>
+        <v>0.9856765497929553</v>
       </c>
       <c r="R5">
-        <v>0.9973649756880404</v>
+        <v>0.9958016882097598</v>
       </c>
       <c r="S5">
-        <v>0.9973649756880404</v>
+        <v>0.9958016882097598</v>
       </c>
       <c r="T5">
-        <v>0.9993349382925075</v>
+        <v>0.9973263415508522</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.025453807412359</v>
+        <v>1.007243669749104</v>
       </c>
       <c r="D6">
-        <v>0.8796450444302782</v>
+        <v>0.9670238189360572</v>
       </c>
       <c r="E6">
-        <v>0.8796450444302782</v>
+        <v>0.9670238189360572</v>
       </c>
       <c r="F6">
-        <v>1.032663688839514</v>
+        <v>1.008799811900656</v>
       </c>
       <c r="G6">
-        <v>1.030561676734504</v>
+        <v>1.008346124531522</v>
       </c>
       <c r="H6">
-        <v>1.08847647030067</v>
+        <v>1.023762564124166</v>
       </c>
       <c r="I6">
-        <v>0.9321362020860152</v>
+        <v>0.9815029651521375</v>
       </c>
       <c r="J6">
-        <v>1.025453807412359</v>
+        <v>1.007243669749104</v>
       </c>
       <c r="K6">
-        <v>1.025453807412359</v>
+        <v>1.007243669749104</v>
       </c>
       <c r="L6">
-        <v>1.032663688839514</v>
+        <v>1.008799811900656</v>
       </c>
       <c r="M6">
-        <v>0.9561543666348962</v>
+        <v>0.9879118154183568</v>
       </c>
       <c r="N6">
-        <v>0.9561543666348962</v>
+        <v>0.9879118154183568</v>
       </c>
       <c r="O6">
-        <v>0.9481483117852693</v>
+        <v>0.9857755319962838</v>
       </c>
       <c r="P6">
-        <v>0.9792541802273839</v>
+        <v>0.9943557668619393</v>
       </c>
       <c r="Q6">
-        <v>0.9792541802273839</v>
+        <v>0.9943557668619393</v>
       </c>
       <c r="R6">
-        <v>0.9908040870236277</v>
+        <v>0.9975777425837304</v>
       </c>
       <c r="S6">
-        <v>0.9908040870236277</v>
+        <v>0.9975777425837304</v>
       </c>
       <c r="T6">
-        <v>0.9981561483005567</v>
+        <v>0.9994464923989406</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.00118740294612</v>
+        <v>1.008380025893372</v>
       </c>
       <c r="D7">
-        <v>0.9957929674139092</v>
+        <v>0.9629452366282427</v>
       </c>
       <c r="E7">
-        <v>0.9957929674139092</v>
+        <v>0.9629452366282427</v>
       </c>
       <c r="F7">
-        <v>1.00097640001903</v>
+        <v>1.009754614337175</v>
       </c>
       <c r="G7">
-        <v>1.001037916213708</v>
+        <v>1.009353859582134</v>
       </c>
       <c r="H7">
-        <v>1.002563540557851</v>
+        <v>1.026274132002884</v>
       </c>
       <c r="I7">
-        <v>0.997734964423983</v>
+        <v>0.9793017613112386</v>
       </c>
       <c r="J7">
-        <v>1.00118740294612</v>
+        <v>1.008380025893372</v>
       </c>
       <c r="K7">
-        <v>1.00118740294612</v>
+        <v>1.008380025893372</v>
       </c>
       <c r="L7">
-        <v>1.00097640001903</v>
+        <v>1.009754614337175</v>
       </c>
       <c r="M7">
-        <v>0.9983846837164698</v>
+        <v>0.9863499254827091</v>
       </c>
       <c r="N7">
-        <v>0.9983846837164698</v>
+        <v>0.9863499254827091</v>
       </c>
       <c r="O7">
-        <v>0.9981681106189741</v>
+        <v>0.9840005374255522</v>
       </c>
       <c r="P7">
-        <v>0.9993189234596865</v>
+        <v>0.9936932922862632</v>
       </c>
       <c r="Q7">
-        <v>0.9993189234596865</v>
+        <v>0.9936932922862632</v>
       </c>
       <c r="R7">
-        <v>0.9997860433312948</v>
+        <v>0.9973649756880404</v>
       </c>
       <c r="S7">
-        <v>0.9997860433312948</v>
+        <v>0.9973649756880404</v>
       </c>
       <c r="T7">
-        <v>0.9998821985957669</v>
+        <v>0.9993349382925075</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000123816162829</v>
+        <v>1.025453807412359</v>
       </c>
       <c r="D8">
-        <v>0.9996629730186686</v>
+        <v>0.8796450444302782</v>
       </c>
       <c r="E8">
-        <v>0.9996629730186686</v>
+        <v>0.8796450444302782</v>
       </c>
       <c r="F8">
-        <v>1.000062279263076</v>
+        <v>1.032663688839514</v>
       </c>
       <c r="G8">
-        <v>1.000080219422852</v>
+        <v>1.030561676734504</v>
       </c>
       <c r="H8">
-        <v>1.000154356865046</v>
+        <v>1.08847647030067</v>
       </c>
       <c r="I8">
-        <v>0.9998288763691064</v>
+        <v>0.9321362020860152</v>
       </c>
       <c r="J8">
-        <v>1.000123816162829</v>
+        <v>1.025453807412359</v>
       </c>
       <c r="K8">
-        <v>1.000123816162829</v>
+        <v>1.025453807412359</v>
       </c>
       <c r="L8">
-        <v>1.000062279263076</v>
+        <v>1.032663688839514</v>
       </c>
       <c r="M8">
-        <v>0.9998626261408721</v>
+        <v>0.9561543666348962</v>
       </c>
       <c r="N8">
-        <v>0.9998626261408721</v>
+        <v>0.9561543666348962</v>
       </c>
       <c r="O8">
-        <v>0.9998513762169502</v>
+        <v>0.9481483117852693</v>
       </c>
       <c r="P8">
-        <v>0.9999496894815244</v>
+        <v>0.9792541802273839</v>
       </c>
       <c r="Q8">
-        <v>0.9999496894815244</v>
+        <v>0.9792541802273839</v>
       </c>
       <c r="R8">
-        <v>0.9999932211518506</v>
+        <v>0.9908040870236277</v>
       </c>
       <c r="S8">
-        <v>0.9999932211518506</v>
+        <v>0.9908040870236277</v>
       </c>
       <c r="T8">
-        <v>0.9999854201835964</v>
+        <v>0.9981561483005567</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.001945815069796</v>
+        <v>1.00118740294612</v>
       </c>
       <c r="D9">
-        <v>0.9930447032198529</v>
+        <v>0.9957929674139092</v>
       </c>
       <c r="E9">
-        <v>0.9930447032198529</v>
+        <v>0.9957929674139092</v>
       </c>
       <c r="F9">
-        <v>1.001623829449759</v>
+        <v>1.00097640001903</v>
       </c>
       <c r="G9">
-        <v>1.001717701230573</v>
+        <v>1.001037916213708</v>
       </c>
       <c r="H9">
-        <v>1.004268877214932</v>
+        <v>1.002563540557851</v>
       </c>
       <c r="I9">
-        <v>0.9962491037741025</v>
+        <v>0.997734964423983</v>
       </c>
       <c r="J9">
-        <v>1.001945815069796</v>
+        <v>1.00118740294612</v>
       </c>
       <c r="K9">
-        <v>1.001945815069796</v>
+        <v>1.00118740294612</v>
       </c>
       <c r="L9">
-        <v>1.001623829449759</v>
+        <v>1.00097640001903</v>
       </c>
       <c r="M9">
-        <v>0.9973342663348057</v>
+        <v>0.9983846837164698</v>
       </c>
       <c r="N9">
-        <v>0.9973342663348057</v>
+        <v>0.9983846837164698</v>
       </c>
       <c r="O9">
-        <v>0.9969725454812379</v>
+        <v>0.9981681106189741</v>
       </c>
       <c r="P9">
-        <v>0.9988714492464693</v>
+        <v>0.9993189234596865</v>
       </c>
       <c r="Q9">
-        <v>0.9988714492464693</v>
+        <v>0.9993189234596865</v>
       </c>
       <c r="R9">
-        <v>0.9996400407023012</v>
+        <v>0.9997860433312948</v>
       </c>
       <c r="S9">
-        <v>0.9996400407023012</v>
+        <v>0.9997860433312948</v>
       </c>
       <c r="T9">
-        <v>0.9998083383265026</v>
+        <v>0.9998821985957669</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.025743103524455</v>
+        <v>1.000123816162829</v>
       </c>
       <c r="D10">
-        <v>0.8779097628518997</v>
+        <v>0.9996629730186686</v>
       </c>
       <c r="E10">
-        <v>0.8779097628518997</v>
+        <v>0.9996629730186686</v>
       </c>
       <c r="F10">
-        <v>1.033177801240041</v>
+        <v>1.000062279263076</v>
       </c>
       <c r="G10">
-        <v>1.03101024488281</v>
+        <v>1.000080219422852</v>
       </c>
       <c r="H10">
-        <v>1.089890258985517</v>
+        <v>1.000154356865046</v>
       </c>
       <c r="I10">
-        <v>0.931129767739992</v>
+        <v>0.9998288763691064</v>
       </c>
       <c r="J10">
-        <v>1.025743103524455</v>
+        <v>1.000123816162829</v>
       </c>
       <c r="K10">
-        <v>1.025743103524455</v>
+        <v>1.000123816162829</v>
       </c>
       <c r="L10">
-        <v>1.033177801240041</v>
+        <v>1.000062279263076</v>
       </c>
       <c r="M10">
-        <v>0.9555437820459706</v>
+        <v>0.9998626261408721</v>
       </c>
       <c r="N10">
-        <v>0.9555437820459706</v>
+        <v>0.9998626261408721</v>
       </c>
       <c r="O10">
-        <v>0.9474057772773111</v>
+        <v>0.9998513762169502</v>
       </c>
       <c r="P10">
-        <v>0.9789435558721321</v>
+        <v>0.9999496894815244</v>
       </c>
       <c r="Q10">
-        <v>0.9789435558721321</v>
+        <v>0.9999496894815244</v>
       </c>
       <c r="R10">
-        <v>0.9906434427852129</v>
+        <v>0.9999932211518506</v>
       </c>
       <c r="S10">
-        <v>0.9906434427852129</v>
+        <v>0.9999932211518506</v>
       </c>
       <c r="T10">
-        <v>0.9981434898707858</v>
+        <v>0.9999854201835964</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.008202021794526</v>
+        <v>1.001945815069796</v>
       </c>
       <c r="D11">
-        <v>0.9645442583849078</v>
+        <v>0.9930447032198529</v>
       </c>
       <c r="E11">
-        <v>0.9645442583849078</v>
+        <v>0.9930447032198529</v>
       </c>
       <c r="F11">
-        <v>1.009231665545315</v>
+        <v>1.001623829449759</v>
       </c>
       <c r="G11">
-        <v>1.008931476292533</v>
+        <v>1.001717701230573</v>
       </c>
       <c r="H11">
-        <v>1.024813886943567</v>
+        <v>1.004268877214932</v>
       </c>
       <c r="I11">
-        <v>0.9802610549021619</v>
+        <v>0.9962491037741025</v>
       </c>
       <c r="J11">
-        <v>1.008202021794526</v>
+        <v>1.001945815069796</v>
       </c>
       <c r="K11">
-        <v>1.008202021794526</v>
+        <v>1.001945815069796</v>
       </c>
       <c r="L11">
-        <v>1.009231665545315</v>
+        <v>1.001623829449759</v>
       </c>
       <c r="M11">
-        <v>0.9868879619651114</v>
+        <v>0.9973342663348057</v>
       </c>
       <c r="N11">
-        <v>0.9868879619651114</v>
+        <v>0.9973342663348057</v>
       </c>
       <c r="O11">
-        <v>0.9846789929441283</v>
+        <v>0.9969725454812379</v>
       </c>
       <c r="P11">
-        <v>0.9939926485749163</v>
+        <v>0.9988714492464693</v>
       </c>
       <c r="Q11">
-        <v>0.9939926485749163</v>
+        <v>0.9988714492464693</v>
       </c>
       <c r="R11">
-        <v>0.9975449918798187</v>
+        <v>0.9996400407023012</v>
       </c>
       <c r="S11">
-        <v>0.9975449918798187</v>
+        <v>0.9996400407023012</v>
       </c>
       <c r="T11">
-        <v>0.9993307273105018</v>
+        <v>0.9998083383265026</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.007970169347369</v>
+        <v>1.025743103524455</v>
       </c>
       <c r="D12">
-        <v>0.9624418490842109</v>
+        <v>0.8779097628518997</v>
       </c>
       <c r="E12">
-        <v>0.9624418490842109</v>
+        <v>0.8779097628518997</v>
       </c>
       <c r="F12">
-        <v>1.010178074673687</v>
+        <v>1.033177801240041</v>
       </c>
       <c r="G12">
-        <v>1.009534370378948</v>
+        <v>1.03101024488281</v>
       </c>
       <c r="H12">
-        <v>1.027562087978948</v>
+        <v>1.089890258985517</v>
       </c>
       <c r="I12">
-        <v>0.9788320444736845</v>
+        <v>0.931129767739992</v>
       </c>
       <c r="J12">
-        <v>1.007970169347369</v>
+        <v>1.025743103524455</v>
       </c>
       <c r="K12">
-        <v>1.007970169347369</v>
+        <v>1.025743103524455</v>
       </c>
       <c r="L12">
-        <v>1.010178074673687</v>
+        <v>1.033177801240041</v>
       </c>
       <c r="M12">
-        <v>0.9863099618789488</v>
+        <v>0.9555437820459706</v>
       </c>
       <c r="N12">
-        <v>0.9863099618789488</v>
+        <v>0.9555437820459706</v>
       </c>
       <c r="O12">
-        <v>0.9838173227438607</v>
+        <v>0.9474057772773111</v>
       </c>
       <c r="P12">
-        <v>0.9935300310350886</v>
+        <v>0.9789435558721321</v>
       </c>
       <c r="Q12">
-        <v>0.9935300310350886</v>
+        <v>0.9789435558721321</v>
       </c>
       <c r="R12">
-        <v>0.9971400656131586</v>
+        <v>0.9906434427852129</v>
       </c>
       <c r="S12">
-        <v>0.9971400656131586</v>
+        <v>0.9906434427852129</v>
       </c>
       <c r="T12">
-        <v>0.9994197659894746</v>
+        <v>0.9981434898707858</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9939603927591961</v>
+        <v>1.008202021794526</v>
       </c>
       <c r="D13">
-        <v>1.024612952076128</v>
+        <v>0.9645442583849078</v>
       </c>
       <c r="E13">
-        <v>1.024612952076128</v>
+        <v>0.9645442583849078</v>
       </c>
       <c r="F13">
-        <v>0.9937836358206015</v>
+        <v>1.009231665545315</v>
       </c>
       <c r="G13">
-        <v>0.9938351671234902</v>
+        <v>1.008931476292533</v>
       </c>
       <c r="H13">
-        <v>0.983389360918871</v>
+        <v>1.024813886943567</v>
       </c>
       <c r="I13">
-        <v>1.013578029728871</v>
+        <v>0.9802610549021619</v>
       </c>
       <c r="J13">
-        <v>0.9939603927591961</v>
+        <v>1.008202021794526</v>
       </c>
       <c r="K13">
-        <v>0.9939603927591961</v>
+        <v>1.008202021794526</v>
       </c>
       <c r="L13">
-        <v>0.9937836358206015</v>
+        <v>1.009231665545315</v>
       </c>
       <c r="M13">
-        <v>1.009198293948365</v>
+        <v>0.9868879619651114</v>
       </c>
       <c r="N13">
-        <v>1.009198293948365</v>
+        <v>0.9868879619651114</v>
       </c>
       <c r="O13">
-        <v>1.0106582058752</v>
+        <v>0.9846789929441283</v>
       </c>
       <c r="P13">
-        <v>1.004118993551975</v>
+        <v>0.9939926485749163</v>
       </c>
       <c r="Q13">
-        <v>1.004118993551975</v>
+        <v>0.9939926485749163</v>
       </c>
       <c r="R13">
-        <v>1.001579343353781</v>
+        <v>0.9975449918798187</v>
       </c>
       <c r="S13">
-        <v>1.001579343353781</v>
+        <v>0.9975449918798187</v>
       </c>
       <c r="T13">
-        <v>1.00052658973786</v>
+        <v>0.9993307273105018</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.044254600000001</v>
+        <v>1.007970169347369</v>
       </c>
       <c r="D14">
-        <v>0.7892001700000005</v>
+        <v>0.9624418490842109</v>
       </c>
       <c r="E14">
-        <v>0.7892001700000005</v>
+        <v>0.9624418490842109</v>
       </c>
       <c r="F14">
-        <v>1.0573918</v>
+        <v>1.010178074673687</v>
       </c>
       <c r="G14">
-        <v>1.053561700000001</v>
+        <v>1.009534370378948</v>
       </c>
       <c r="H14">
-        <v>1.155547100000001</v>
+        <v>1.027562087978948</v>
       </c>
       <c r="I14">
-        <v>0.8810197700000013</v>
+        <v>0.9788320444736845</v>
       </c>
       <c r="J14">
-        <v>1.044254600000001</v>
+        <v>1.007970169347369</v>
       </c>
       <c r="K14">
-        <v>1.044254600000001</v>
+        <v>1.007970169347369</v>
       </c>
       <c r="L14">
-        <v>1.0573918</v>
+        <v>1.010178074673687</v>
       </c>
       <c r="M14">
-        <v>0.9232959850000004</v>
+        <v>0.9863099618789488</v>
       </c>
       <c r="N14">
-        <v>0.9232959850000004</v>
+        <v>0.9863099618789488</v>
       </c>
       <c r="O14">
-        <v>0.9092039133333341</v>
+        <v>0.9838173227438607</v>
       </c>
       <c r="P14">
-        <v>0.9636155233333339</v>
+        <v>0.9935300310350886</v>
       </c>
       <c r="Q14">
-        <v>0.9636155233333339</v>
+        <v>0.9935300310350886</v>
       </c>
       <c r="R14">
-        <v>0.9837752925000007</v>
+        <v>0.9971400656131586</v>
       </c>
       <c r="S14">
-        <v>0.9837752925000007</v>
+        <v>0.9971400656131586</v>
       </c>
       <c r="T14">
-        <v>0.9968291900000009</v>
+        <v>0.9994197659894746</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.0396018</v>
+        <v>0.9939603927591961</v>
       </c>
       <c r="D15">
-        <v>0.88779747</v>
+        <v>1.024612952076128</v>
       </c>
       <c r="E15">
-        <v>0.88779747</v>
+        <v>1.024612952076128</v>
       </c>
       <c r="F15">
-        <v>1.0216333</v>
+        <v>0.9937836358206015</v>
       </c>
       <c r="G15">
-        <v>1.0268719</v>
+        <v>0.9938351671234902</v>
       </c>
       <c r="H15">
-        <v>1.0542662</v>
+        <v>0.983389360918871</v>
       </c>
       <c r="I15">
-        <v>0.94244704</v>
+        <v>1.013578029728871</v>
       </c>
       <c r="J15">
-        <v>1.0396018</v>
+        <v>0.9939603927591961</v>
       </c>
       <c r="K15">
-        <v>1.0396018</v>
+        <v>0.9939603927591961</v>
       </c>
       <c r="L15">
-        <v>1.0216333</v>
+        <v>0.9937836358206015</v>
       </c>
       <c r="M15">
-        <v>0.954715385</v>
+        <v>1.009198293948365</v>
       </c>
       <c r="N15">
-        <v>0.954715385</v>
+        <v>1.009198293948365</v>
       </c>
       <c r="O15">
-        <v>0.9506259366666666</v>
+        <v>1.0106582058752</v>
       </c>
       <c r="P15">
-        <v>0.9830108566666667</v>
+        <v>1.004118993551975</v>
       </c>
       <c r="Q15">
-        <v>0.9830108566666667</v>
+        <v>1.004118993551975</v>
       </c>
       <c r="R15">
-        <v>0.9971585924999999</v>
+        <v>1.001579343353781</v>
       </c>
       <c r="S15">
-        <v>0.9971585924999999</v>
+        <v>1.001579343353781</v>
       </c>
       <c r="T15">
-        <v>0.9954362849999999</v>
+        <v>1.00052658973786</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.0496294</v>
+        <v>1.044254600000001</v>
       </c>
       <c r="D16">
-        <v>0.76005964</v>
+        <v>0.7892001700000005</v>
       </c>
       <c r="E16">
-        <v>0.76005964</v>
+        <v>0.7892001700000005</v>
       </c>
       <c r="F16">
-        <v>1.0657383</v>
+        <v>1.0573918</v>
       </c>
       <c r="G16">
-        <v>1.0610418</v>
+        <v>1.053561700000001</v>
       </c>
       <c r="H16">
-        <v>1.1783704</v>
+        <v>1.155547100000001</v>
       </c>
       <c r="I16">
-        <v>0.86430474</v>
+        <v>0.8810197700000013</v>
       </c>
       <c r="J16">
-        <v>1.0496294</v>
+        <v>1.044254600000001</v>
       </c>
       <c r="K16">
-        <v>1.0496294</v>
+        <v>1.044254600000001</v>
       </c>
       <c r="L16">
-        <v>1.0657383</v>
+        <v>1.0573918</v>
       </c>
       <c r="M16">
-        <v>0.9128989700000001</v>
+        <v>0.9232959850000004</v>
       </c>
       <c r="N16">
-        <v>0.9128989700000001</v>
+        <v>0.9232959850000004</v>
       </c>
       <c r="O16">
-        <v>0.8967008933333335</v>
+        <v>0.9092039133333341</v>
       </c>
       <c r="P16">
-        <v>0.95847578</v>
+        <v>0.9636155233333339</v>
       </c>
       <c r="Q16">
-        <v>0.95847578</v>
+        <v>0.9636155233333339</v>
       </c>
       <c r="R16">
-        <v>0.9812641849999999</v>
+        <v>0.9837752925000007</v>
       </c>
       <c r="S16">
-        <v>0.9812641849999999</v>
+        <v>0.9837752925000007</v>
       </c>
       <c r="T16">
-        <v>0.9965240466666666</v>
+        <v>0.9968291900000009</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.98806803</v>
+        <v>1.0396018</v>
       </c>
       <c r="D17">
-        <v>1.0497203</v>
+        <v>0.88779747</v>
       </c>
       <c r="E17">
-        <v>1.0497203</v>
+        <v>0.88779747</v>
       </c>
       <c r="F17">
-        <v>0.98729322</v>
+        <v>1.0216333</v>
       </c>
       <c r="G17">
-        <v>0.98751911</v>
+        <v>1.0268719</v>
       </c>
       <c r="H17">
-        <v>0.96596766</v>
+        <v>1.0542662</v>
       </c>
       <c r="I17">
-        <v>1.0275255</v>
+        <v>0.94244704</v>
       </c>
       <c r="J17">
-        <v>0.98806803</v>
+        <v>1.0396018</v>
       </c>
       <c r="K17">
-        <v>0.98806803</v>
+        <v>1.0396018</v>
       </c>
       <c r="L17">
-        <v>0.98729322</v>
+        <v>1.0216333</v>
       </c>
       <c r="M17">
-        <v>1.01850676</v>
+        <v>0.954715385</v>
       </c>
       <c r="N17">
-        <v>1.01850676</v>
+        <v>0.954715385</v>
       </c>
       <c r="O17">
-        <v>1.021513006666667</v>
+        <v>0.9506259366666666</v>
       </c>
       <c r="P17">
-        <v>1.008360516666667</v>
+        <v>0.9830108566666667</v>
       </c>
       <c r="Q17">
-        <v>1.008360516666666</v>
+        <v>0.9830108566666667</v>
       </c>
       <c r="R17">
-        <v>1.003287395</v>
+        <v>0.9971585924999999</v>
       </c>
       <c r="S17">
-        <v>1.003287395</v>
+        <v>0.9971585924999999</v>
       </c>
       <c r="T17">
-        <v>1.001015636666666</v>
+        <v>0.9954362849999999</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.023678468493151</v>
+        <v>1.0496294</v>
       </c>
       <c r="D18">
-        <v>0.9163310932876712</v>
+        <v>0.76005964</v>
       </c>
       <c r="E18">
-        <v>0.9163310932876712</v>
+        <v>0.76005964</v>
       </c>
       <c r="F18">
-        <v>1.019383204657534</v>
+        <v>1.0657383</v>
       </c>
       <c r="G18">
-        <v>1.020635459452055</v>
+        <v>1.0610418</v>
       </c>
       <c r="H18">
-        <v>1.050870365479452</v>
+        <v>1.1783704</v>
       </c>
       <c r="I18">
-        <v>0.9549761539726026</v>
+        <v>0.86430474</v>
       </c>
       <c r="J18">
-        <v>1.023678468493151</v>
+        <v>1.0496294</v>
       </c>
       <c r="K18">
-        <v>1.023678468493151</v>
+        <v>1.0496294</v>
       </c>
       <c r="L18">
-        <v>1.019383204657534</v>
+        <v>1.0657383</v>
       </c>
       <c r="M18">
-        <v>0.9678571489726027</v>
+        <v>0.9128989700000001</v>
       </c>
       <c r="N18">
-        <v>0.9678571489726027</v>
+        <v>0.9128989700000001</v>
       </c>
       <c r="O18">
-        <v>0.9635634839726026</v>
+        <v>0.8967008933333335</v>
       </c>
       <c r="P18">
-        <v>0.9864642554794522</v>
+        <v>0.95847578</v>
       </c>
       <c r="Q18">
-        <v>0.9864642554794522</v>
+        <v>0.95847578</v>
       </c>
       <c r="R18">
-        <v>0.995767808732877</v>
+        <v>0.9812641849999999</v>
       </c>
       <c r="S18">
-        <v>0.995767808732877</v>
+        <v>0.9812641849999999</v>
       </c>
       <c r="T18">
-        <v>0.9976457908904109</v>
+        <v>0.9965240466666666</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.007648322631579</v>
+        <v>0.98806803</v>
       </c>
       <c r="D19">
-        <v>0.9537486157894736</v>
+        <v>1.0497203</v>
       </c>
       <c r="E19">
-        <v>0.9537486157894736</v>
+        <v>1.0497203</v>
       </c>
       <c r="F19">
-        <v>1.013737583684211</v>
+        <v>0.98729322</v>
       </c>
       <c r="G19">
-        <v>1.01196228631579</v>
+        <v>0.98751911</v>
       </c>
       <c r="H19">
-        <v>1.037793427368421</v>
+        <v>0.96596766</v>
       </c>
       <c r="I19">
-        <v>0.9731525063157895</v>
+        <v>1.0275255</v>
       </c>
       <c r="J19">
-        <v>1.007648322631579</v>
+        <v>0.98806803</v>
       </c>
       <c r="K19">
-        <v>1.007648322631579</v>
+        <v>0.98806803</v>
       </c>
       <c r="L19">
-        <v>1.013737583684211</v>
+        <v>0.98729322</v>
       </c>
       <c r="M19">
-        <v>0.9837430997368422</v>
+        <v>1.01850676</v>
       </c>
       <c r="N19">
-        <v>0.9837430997368422</v>
+        <v>1.01850676</v>
       </c>
       <c r="O19">
-        <v>0.9802129019298246</v>
+        <v>1.021513006666667</v>
       </c>
       <c r="P19">
-        <v>0.9917115073684211</v>
+        <v>1.008360516666667</v>
       </c>
       <c r="Q19">
-        <v>0.9917115073684211</v>
+        <v>1.008360516666666</v>
       </c>
       <c r="R19">
-        <v>0.9956957111842105</v>
+        <v>1.003287395</v>
       </c>
       <c r="S19">
-        <v>0.9956957111842105</v>
+        <v>1.003287395</v>
       </c>
       <c r="T19">
-        <v>0.9996737903508772</v>
+        <v>1.001015636666666</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.027809410526316</v>
+        <v>1.023678468493151</v>
       </c>
       <c r="D20">
-        <v>0.9013526257894738</v>
+        <v>0.9163310932876712</v>
       </c>
       <c r="E20">
-        <v>0.9013526257894738</v>
+        <v>0.9163310932876712</v>
       </c>
       <c r="F20">
-        <v>1.022913189473684</v>
+        <v>1.019383204657534</v>
       </c>
       <c r="G20">
-        <v>1.024340652631579</v>
+        <v>1.020635459452055</v>
       </c>
       <c r="H20">
-        <v>1.060169231578947</v>
+        <v>1.050870365479452</v>
       </c>
       <c r="I20">
-        <v>0.9468770710526315</v>
+        <v>0.9549761539726026</v>
       </c>
       <c r="J20">
-        <v>1.027809410526316</v>
+        <v>1.023678468493151</v>
       </c>
       <c r="K20">
-        <v>1.027809410526316</v>
+        <v>1.023678468493151</v>
       </c>
       <c r="L20">
-        <v>1.022913189473684</v>
+        <v>1.019383204657534</v>
       </c>
       <c r="M20">
-        <v>0.962132907631579</v>
+        <v>0.9678571489726027</v>
       </c>
       <c r="N20">
-        <v>0.962132907631579</v>
+        <v>0.9678571489726027</v>
       </c>
       <c r="O20">
-        <v>0.9570476287719298</v>
+        <v>0.9635634839726026</v>
       </c>
       <c r="P20">
-        <v>0.984025075263158</v>
+        <v>0.9864642554794522</v>
       </c>
       <c r="Q20">
-        <v>0.984025075263158</v>
+        <v>0.9864642554794522</v>
       </c>
       <c r="R20">
-        <v>0.9949711590789474</v>
+        <v>0.995767808732877</v>
       </c>
       <c r="S20">
-        <v>0.9949711590789474</v>
+        <v>0.995767808732877</v>
       </c>
       <c r="T20">
-        <v>0.9972436968421053</v>
+        <v>0.9976457908904109</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.977705090425344</v>
+        <v>1.007648322631579</v>
       </c>
       <c r="D21">
-        <v>1.088593805931357</v>
+        <v>0.9537486157894736</v>
       </c>
       <c r="E21">
-        <v>1.088593805931357</v>
+        <v>0.9537486157894736</v>
       </c>
       <c r="F21">
-        <v>0.9779329153277131</v>
+        <v>1.013737583684211</v>
       </c>
       <c r="G21">
-        <v>0.9778664977828289</v>
+        <v>1.01196228631579</v>
       </c>
       <c r="H21">
-        <v>0.9411978475825253</v>
+        <v>1.037793427368421</v>
       </c>
       <c r="I21">
-        <v>1.048673862633481</v>
+        <v>0.9731525063157895</v>
       </c>
       <c r="J21">
-        <v>0.977705090425344</v>
+        <v>1.007648322631579</v>
       </c>
       <c r="K21">
-        <v>0.977705090425344</v>
+        <v>1.007648322631579</v>
       </c>
       <c r="L21">
-        <v>0.9779329153277131</v>
+        <v>1.013737583684211</v>
       </c>
       <c r="M21">
-        <v>1.033263360629535</v>
+        <v>0.9837430997368422</v>
       </c>
       <c r="N21">
-        <v>1.033263360629535</v>
+        <v>0.9837430997368422</v>
       </c>
       <c r="O21">
-        <v>1.038400194630851</v>
+        <v>0.9802129019298246</v>
       </c>
       <c r="P21">
-        <v>1.014743937228138</v>
+        <v>0.9917115073684211</v>
       </c>
       <c r="Q21">
-        <v>1.014743937228138</v>
+        <v>0.9917115073684211</v>
       </c>
       <c r="R21">
-        <v>1.00548422552744</v>
+        <v>0.9956957111842105</v>
       </c>
       <c r="S21">
-        <v>1.00548422552744</v>
+        <v>0.9956957111842105</v>
       </c>
       <c r="T21">
-        <v>1.001995003280542</v>
+        <v>0.9996737903508772</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9941625928970294</v>
+        <v>1.027809410526316</v>
       </c>
       <c r="D22">
-        <v>1.023438890463707</v>
+        <v>0.9013526257894738</v>
       </c>
       <c r="E22">
-        <v>1.023438890463707</v>
+        <v>0.9013526257894738</v>
       </c>
       <c r="F22">
-        <v>0.9941278789637381</v>
+        <v>1.022913189473684</v>
       </c>
       <c r="G22">
-        <v>0.9941379966925324</v>
+        <v>1.024340652631579</v>
       </c>
       <c r="H22">
-        <v>0.9843344142237102</v>
+        <v>1.060169231578947</v>
       </c>
       <c r="I22">
-        <v>1.012899424255258</v>
+        <v>0.9468770710526315</v>
       </c>
       <c r="J22">
-        <v>0.9941625928970294</v>
+        <v>1.027809410526316</v>
       </c>
       <c r="K22">
-        <v>0.9941625928970294</v>
+        <v>1.027809410526316</v>
       </c>
       <c r="L22">
-        <v>0.9941278789637381</v>
+        <v>1.022913189473684</v>
       </c>
       <c r="M22">
-        <v>1.008783384713723</v>
+        <v>0.962132907631579</v>
       </c>
       <c r="N22">
-        <v>1.008783384713723</v>
+        <v>0.962132907631579</v>
       </c>
       <c r="O22">
-        <v>1.010155397894234</v>
+        <v>0.9570476287719298</v>
       </c>
       <c r="P22">
-        <v>1.003909787441492</v>
+        <v>0.984025075263158</v>
       </c>
       <c r="Q22">
-        <v>1.003909787441492</v>
+        <v>0.984025075263158</v>
       </c>
       <c r="R22">
-        <v>1.001472988805376</v>
+        <v>0.9949711590789474</v>
       </c>
       <c r="S22">
-        <v>1.001472988805376</v>
+        <v>0.9949711590789474</v>
       </c>
       <c r="T22">
-        <v>1.000516866249329</v>
+        <v>0.9972436968421053</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.9922487180159747</v>
+        <v>0.977705090425344</v>
       </c>
       <c r="D23">
-        <v>1.035590697634032</v>
+        <v>1.088593805931357</v>
       </c>
       <c r="E23">
-        <v>1.035590697634032</v>
+        <v>1.088593805931357</v>
       </c>
       <c r="F23">
-        <v>0.9904654422090639</v>
+        <v>0.9779329153277131</v>
       </c>
       <c r="G23">
-        <v>0.9909853482461128</v>
+        <v>0.9778664977828289</v>
       </c>
       <c r="H23">
-        <v>0.9742348483760883</v>
+        <v>0.9411978475825253</v>
       </c>
       <c r="I23">
-        <v>1.019987587429532</v>
+        <v>1.048673862633481</v>
       </c>
       <c r="J23">
-        <v>0.9922487180159747</v>
+        <v>0.977705090425344</v>
       </c>
       <c r="K23">
-        <v>0.9922487180159747</v>
+        <v>0.977705090425344</v>
       </c>
       <c r="L23">
-        <v>0.9904654422090639</v>
+        <v>0.9779329153277131</v>
       </c>
       <c r="M23">
-        <v>1.013028069921548</v>
+        <v>1.033263360629535</v>
       </c>
       <c r="N23">
-        <v>1.013028069921548</v>
+        <v>1.033263360629535</v>
       </c>
       <c r="O23">
-        <v>1.015347909090876</v>
+        <v>1.038400194630851</v>
       </c>
       <c r="P23">
-        <v>1.006101619286357</v>
+        <v>1.014743937228138</v>
       </c>
       <c r="Q23">
-        <v>1.006101619286357</v>
+        <v>1.014743937228138</v>
       </c>
       <c r="R23">
-        <v>1.002638393968761</v>
+        <v>1.00548422552744</v>
       </c>
       <c r="S23">
-        <v>1.002638393968761</v>
+        <v>1.00548422552744</v>
       </c>
       <c r="T23">
-        <v>1.000585440318467</v>
+        <v>1.001995003280542</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9970572224990493</v>
+        <v>0.9941625928970294</v>
       </c>
       <c r="D24">
-        <v>1.009784018769365</v>
+        <v>1.023438890463707</v>
       </c>
       <c r="E24">
-        <v>1.009784018769365</v>
+        <v>1.023438890463707</v>
       </c>
       <c r="F24">
-        <v>0.9978299784127406</v>
+        <v>0.9941278789637381</v>
       </c>
       <c r="G24">
-        <v>0.997604682345176</v>
+        <v>0.9941379966925324</v>
       </c>
       <c r="H24">
-        <v>0.9943604702010407</v>
+        <v>0.9843344142237102</v>
       </c>
       <c r="I24">
-        <v>1.00520236982331</v>
+        <v>1.012899424255258</v>
       </c>
       <c r="J24">
-        <v>0.9970572224990493</v>
+        <v>0.9941625928970294</v>
       </c>
       <c r="K24">
-        <v>0.9970572224990493</v>
+        <v>0.9941625928970294</v>
       </c>
       <c r="L24">
-        <v>0.9978299784127406</v>
+        <v>0.9941278789637381</v>
       </c>
       <c r="M24">
-        <v>1.003806998591053</v>
+        <v>1.008783384713723</v>
       </c>
       <c r="N24">
-        <v>1.003806998591053</v>
+        <v>1.008783384713723</v>
       </c>
       <c r="O24">
-        <v>1.004272122335139</v>
+        <v>1.010155397894234</v>
       </c>
       <c r="P24">
-        <v>1.001557073227052</v>
+        <v>1.003909787441492</v>
       </c>
       <c r="Q24">
-        <v>1.001557073227051</v>
+        <v>1.003909787441492</v>
       </c>
       <c r="R24">
-        <v>1.000432110545051</v>
+        <v>1.001472988805376</v>
       </c>
       <c r="S24">
-        <v>1.000432110545051</v>
+        <v>1.001472988805376</v>
       </c>
       <c r="T24">
-        <v>1.000306457008447</v>
+        <v>1.000516866249329</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.018576941002638</v>
+        <v>0.9922487180159747</v>
       </c>
       <c r="D25">
-        <v>0.9482764881461733</v>
+        <v>1.035590697634032</v>
       </c>
       <c r="E25">
-        <v>0.9482764881461733</v>
+        <v>1.035590697634032</v>
       </c>
       <c r="F25">
-        <v>1.009794181159248</v>
+        <v>0.9904654422090639</v>
       </c>
       <c r="G25">
-        <v>1.012354751677912</v>
+        <v>0.9909853482461128</v>
       </c>
       <c r="H25">
-        <v>1.024444896511594</v>
+        <v>0.9742348483760883</v>
       </c>
       <c r="I25">
-        <v>0.9735846498785875</v>
+        <v>1.019987587429532</v>
       </c>
       <c r="J25">
-        <v>1.018576941002638</v>
+        <v>0.9922487180159747</v>
       </c>
       <c r="K25">
-        <v>1.018576941002638</v>
+        <v>0.9922487180159747</v>
       </c>
       <c r="L25">
-        <v>1.009794181159248</v>
+        <v>0.9904654422090639</v>
       </c>
       <c r="M25">
-        <v>0.9790353346527108</v>
+        <v>1.013028069921548</v>
       </c>
       <c r="N25">
-        <v>0.9790353346527108</v>
+        <v>1.013028069921548</v>
       </c>
       <c r="O25">
-        <v>0.977218439728003</v>
+        <v>1.015347909090876</v>
       </c>
       <c r="P25">
-        <v>0.9922158701026866</v>
+        <v>1.006101619286357</v>
       </c>
       <c r="Q25">
-        <v>0.9922158701026866</v>
+        <v>1.006101619286357</v>
       </c>
       <c r="R25">
-        <v>0.9988061378276745</v>
+        <v>1.002638393968761</v>
       </c>
       <c r="S25">
-        <v>0.9988061378276745</v>
+        <v>1.002638393968761</v>
       </c>
       <c r="T25">
-        <v>0.9978386513960255</v>
+        <v>1.000585440318467</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>1.000450406426228</v>
+        <v>0.9970572224990493</v>
       </c>
       <c r="D26">
-        <v>0.9887737853973807</v>
+        <v>1.009784018769365</v>
       </c>
       <c r="E26">
-        <v>0.9887737853973807</v>
+        <v>1.009784018769365</v>
       </c>
       <c r="F26">
-        <v>1.004115523190984</v>
+        <v>0.9978299784127406</v>
       </c>
       <c r="G26">
-        <v>1.003046973733394</v>
+        <v>0.997604682345176</v>
       </c>
       <c r="H26">
-        <v>1.011672852248793</v>
+        <v>0.9943604702010407</v>
       </c>
       <c r="I26">
-        <v>0.9929773704568738</v>
+        <v>1.00520236982331</v>
       </c>
       <c r="J26">
-        <v>1.000450406426228</v>
+        <v>0.9970572224990493</v>
       </c>
       <c r="K26">
-        <v>1.000450406426228</v>
+        <v>0.9970572224990493</v>
       </c>
       <c r="L26">
-        <v>1.004115523190984</v>
+        <v>0.9978299784127406</v>
       </c>
       <c r="M26">
-        <v>0.9964446542941823</v>
+        <v>1.003806998591053</v>
       </c>
       <c r="N26">
-        <v>0.9964446542941823</v>
+        <v>1.003806998591053</v>
       </c>
       <c r="O26">
-        <v>0.9952888930150795</v>
+        <v>1.004272122335139</v>
       </c>
       <c r="P26">
-        <v>0.997779905004864</v>
+        <v>1.001557073227052</v>
       </c>
       <c r="Q26">
-        <v>0.997779905004864</v>
+        <v>1.001557073227051</v>
       </c>
       <c r="R26">
-        <v>0.9984475303602049</v>
+        <v>1.000432110545051</v>
       </c>
       <c r="S26">
-        <v>0.9984475303602049</v>
+        <v>1.000432110545051</v>
       </c>
       <c r="T26">
-        <v>1.000172818575609</v>
+        <v>1.000306457008447</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>1.003459894380704</v>
+        <v>1.018576941002638</v>
       </c>
       <c r="D27">
-        <v>0.9869302624841106</v>
+        <v>0.9482764881461733</v>
       </c>
       <c r="E27">
-        <v>0.9869302624841106</v>
+        <v>0.9482764881461733</v>
       </c>
       <c r="F27">
-        <v>1.00316050566878</v>
+        <v>1.009794181159248</v>
       </c>
       <c r="G27">
-        <v>1.003247799062585</v>
+        <v>1.012354751677912</v>
       </c>
       <c r="H27">
-        <v>1.008371002083494</v>
+        <v>1.024444896511594</v>
       </c>
       <c r="I27">
-        <v>0.9928809338895573</v>
+        <v>0.9735846498785875</v>
       </c>
       <c r="J27">
-        <v>1.003459894380704</v>
+        <v>1.018576941002638</v>
       </c>
       <c r="K27">
-        <v>1.003459894380704</v>
+        <v>1.018576941002638</v>
       </c>
       <c r="L27">
-        <v>1.00316050566878</v>
+        <v>1.009794181159248</v>
       </c>
       <c r="M27">
-        <v>0.995045384076445</v>
+        <v>0.9790353346527108</v>
       </c>
       <c r="N27">
-        <v>0.995045384076445</v>
+        <v>0.9790353346527108</v>
       </c>
       <c r="O27">
-        <v>0.9943239006808158</v>
+        <v>0.977218439728003</v>
       </c>
       <c r="P27">
-        <v>0.9978502208445313</v>
+        <v>0.9922158701026866</v>
       </c>
       <c r="Q27">
-        <v>0.9978502208445313</v>
+        <v>0.9922158701026866</v>
       </c>
       <c r="R27">
-        <v>0.9992526392285745</v>
+        <v>0.9988061378276745</v>
       </c>
       <c r="S27">
-        <v>0.9992526392285745</v>
+        <v>0.9988061378276745</v>
       </c>
       <c r="T27">
-        <v>0.9996750662615383</v>
+        <v>0.9978386513960255</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>1.00204669195854</v>
+        <v>1.000450406426228</v>
       </c>
       <c r="D28">
-        <v>0.994003197413272</v>
+        <v>0.9887737853973807</v>
       </c>
       <c r="E28">
-        <v>0.994003197413272</v>
+        <v>0.9887737853973807</v>
       </c>
       <c r="F28">
-        <v>1.001195042774943</v>
+        <v>1.004115523190984</v>
       </c>
       <c r="G28">
-        <v>1.001443332311697</v>
+        <v>1.003046973733394</v>
       </c>
       <c r="H28">
-        <v>1.003024552792076</v>
+        <v>1.011672852248793</v>
       </c>
       <c r="I28">
-        <v>0.9968988527662959</v>
+        <v>0.9929773704568738</v>
       </c>
       <c r="J28">
-        <v>1.00204669195854</v>
+        <v>1.000450406426228</v>
       </c>
       <c r="K28">
-        <v>1.00204669195854</v>
+        <v>1.000450406426228</v>
       </c>
       <c r="L28">
-        <v>1.001195042774943</v>
+        <v>1.004115523190984</v>
       </c>
       <c r="M28">
-        <v>0.9975991200941072</v>
+        <v>0.9964446542941823</v>
       </c>
       <c r="N28">
-        <v>0.9975991200941072</v>
+        <v>0.9964446542941823</v>
       </c>
       <c r="O28">
-        <v>0.9973656976515034</v>
+        <v>0.9952888930150795</v>
       </c>
       <c r="P28">
-        <v>0.9990816440489182</v>
+        <v>0.997779905004864</v>
       </c>
       <c r="Q28">
-        <v>0.9990816440489182</v>
+        <v>0.997779905004864</v>
       </c>
       <c r="R28">
-        <v>0.9998229060263237</v>
+        <v>0.9984475303602049</v>
       </c>
       <c r="S28">
-        <v>0.9998229060263237</v>
+        <v>0.9984475303602049</v>
       </c>
       <c r="T28">
-        <v>0.9997686116694706</v>
+        <v>1.000172818575609</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>1.003459894380704</v>
+      </c>
+      <c r="D29">
+        <v>0.9869302624841106</v>
+      </c>
+      <c r="E29">
+        <v>0.9869302624841106</v>
+      </c>
+      <c r="F29">
+        <v>1.00316050566878</v>
+      </c>
+      <c r="G29">
+        <v>1.003247799062585</v>
+      </c>
+      <c r="H29">
+        <v>1.008371002083494</v>
+      </c>
+      <c r="I29">
+        <v>0.9928809338895573</v>
+      </c>
+      <c r="J29">
+        <v>1.003459894380704</v>
+      </c>
+      <c r="K29">
+        <v>1.003459894380704</v>
+      </c>
+      <c r="L29">
+        <v>1.00316050566878</v>
+      </c>
+      <c r="M29">
+        <v>0.995045384076445</v>
+      </c>
+      <c r="N29">
+        <v>0.995045384076445</v>
+      </c>
+      <c r="O29">
+        <v>0.9943239006808158</v>
+      </c>
+      <c r="P29">
+        <v>0.9978502208445313</v>
+      </c>
+      <c r="Q29">
+        <v>0.9978502208445313</v>
+      </c>
+      <c r="R29">
+        <v>0.9992526392285745</v>
+      </c>
+      <c r="S29">
+        <v>0.9992526392285745</v>
+      </c>
+      <c r="T29">
+        <v>0.9996750662615383</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.00204669195854</v>
+      </c>
+      <c r="D30">
+        <v>0.994003197413272</v>
+      </c>
+      <c r="E30">
+        <v>0.994003197413272</v>
+      </c>
+      <c r="F30">
+        <v>1.001195042774943</v>
+      </c>
+      <c r="G30">
+        <v>1.001443332311697</v>
+      </c>
+      <c r="H30">
+        <v>1.003024552792076</v>
+      </c>
+      <c r="I30">
+        <v>0.9968988527662959</v>
+      </c>
+      <c r="J30">
+        <v>1.00204669195854</v>
+      </c>
+      <c r="K30">
+        <v>1.00204669195854</v>
+      </c>
+      <c r="L30">
+        <v>1.001195042774943</v>
+      </c>
+      <c r="M30">
+        <v>0.9975991200941072</v>
+      </c>
+      <c r="N30">
+        <v>0.9975991200941072</v>
+      </c>
+      <c r="O30">
+        <v>0.9973656976515034</v>
+      </c>
+      <c r="P30">
+        <v>0.9990816440489182</v>
+      </c>
+      <c r="Q30">
+        <v>0.9990816440489182</v>
+      </c>
+      <c r="R30">
+        <v>0.9998229060263237</v>
+      </c>
+      <c r="S30">
+        <v>0.9998229060263237</v>
+      </c>
+      <c r="T30">
+        <v>0.9997686116694706</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>0.9930042064436008</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>1.033555532954049</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>1.033555532954049</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>0.9908371929869846</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.9914689679765797</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>0.9751530659286064</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>1.018957045398194</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.9930042064436008</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>0.9930042064436008</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.9908371929869846</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>1.012196362970517</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>1.012196362970517</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>1.014449923779742</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.005798977461545</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>1.005798977461545</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.002600284707059</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.002600284707059</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>1.000496001948002</v>
       </c>
     </row>
